--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\work\TOYO TIRE\Git\TOYOTIRE_BRAND\作業報告書\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -42,7 +42,7 @@
     <definedName name="SC_ZIPCODE">#REF!</definedName>
     <definedName name="工事番号と工事件名">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -170,11 +170,28 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>定例会議</t>
+  </si>
+  <si>
+    <t>「①円弧配列」仕様を調査</t>
+    <rPh sb="10" eb="12">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山本</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマモト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="176" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="177" formatCode="yyyy/m/d;@"/>
@@ -578,7 +595,7 @@
         <xdr:cNvPr id="2" name="Group 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -599,7 +616,7 @@
           <xdr:cNvPr id="3" name="Picture 7" descr="logo_trans02">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000003000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -645,7 +662,7 @@
           <xdr:cNvPr id="4" name="Rectangle 8">
             <a:extLst>
               <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000004000000}"/>
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
               </a:ext>
             </a:extLst>
           </xdr:cNvPr>
@@ -717,7 +734,7 @@
         <xdr:cNvPr id="5" name="Rectangle 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -799,7 +816,7 @@
         <xdr:cNvPr id="6" name="Rectangle 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0000-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1178,7 +1195,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="G8" sqref="G8"/>
+      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1250,7 +1267,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>0</v>
+        <v>6.5</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1291,21 +1308,37 @@
       <c r="B11" s="18">
         <v>1</v>
       </c>
-      <c r="C11" s="19"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="21"/>
+      <c r="C11" s="19">
+        <v>44727</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>14</v>
+      </c>
       <c r="F11" s="22"/>
-      <c r="G11" s="20"/>
+      <c r="G11" s="20">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="2:9" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="B12" s="18">
         <v>2</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="21"/>
+      <c r="C12" s="19">
+        <v>44728</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="F12" s="22"/>
-      <c r="G12" s="20"/>
+      <c r="G12" s="20">
+        <v>5.5</v>
+      </c>
     </row>
     <row r="13" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="18">
@@ -1447,7 +1480,7 @@
       <c r="F26" s="22"/>
       <c r="G26" s="20"/>
     </row>
-    <row r="27" spans="2:7" ht="27" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:7" ht="12" x14ac:dyDescent="0.15">
       <c r="B27" s="18">
         <v>17</v>
       </c>
@@ -1467,7 +1500,7 @@
       <c r="F28" s="22"/>
       <c r="G28" s="20"/>
     </row>
-    <row r="29" spans="2:7" ht="50.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:7" ht="12" x14ac:dyDescent="0.15">
       <c r="B29" s="18">
         <v>19</v>
       </c>
@@ -1537,7 +1570,7 @@
       <c r="F35" s="22"/>
       <c r="G35" s="20"/>
     </row>
-    <row r="36" spans="2:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:7" ht="12" x14ac:dyDescent="0.15">
       <c r="B36" s="18">
         <v>26</v>
       </c>
@@ -1554,7 +1587,7 @@
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 C13:C19 B12:B36">
+  <conditionalFormatting sqref="B11:C11 B12:B36 C12:C19">
     <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -1584,11 +1617,6 @@
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C12">
-    <cfRule type="expression" dxfId="3" priority="5" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
   <conditionalFormatting sqref="D29:D36">
     <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
@@ -1614,23 +1642,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -1849,10 +1860,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1875,20 +1914,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -479,14 +479,7 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <fill>
         <patternFill>
@@ -1195,7 +1188,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1267,7 +1260,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>6.5</v>
+        <v>19.5</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1344,21 +1337,37 @@
       <c r="B13" s="18">
         <v>3</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="21"/>
+      <c r="C13" s="19">
+        <v>44732</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="F13" s="22"/>
-      <c r="G13" s="20"/>
+      <c r="G13" s="20">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="14" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="18">
         <v>4</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="21"/>
+      <c r="C14" s="19">
+        <v>44733</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="F14" s="22"/>
-      <c r="G14" s="20"/>
+      <c r="G14" s="20">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="15" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="18">
@@ -1582,38 +1591,38 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="D13:D20">
-    <cfRule type="expression" dxfId="10" priority="13" stopIfTrue="1">
+  <conditionalFormatting sqref="D15:D20">
+    <cfRule type="expression" dxfId="9" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B11:C11 B12:B36 C12:C19">
-    <cfRule type="expression" dxfId="9" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="8" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12">
-    <cfRule type="expression" dxfId="7" priority="9" stopIfTrue="1">
+  <conditionalFormatting sqref="D12:D14">
+    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="6" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D28">
-    <cfRule type="expression" dxfId="5" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="4" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1642,6 +1651,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -1860,14 +1877,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -1878,6 +1887,23 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1896,23 +1922,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>

--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1260,7 +1260,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>19.5</v>
+        <v>28.5</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1373,21 +1373,37 @@
       <c r="B15" s="18">
         <v>5</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="21"/>
+      <c r="C15" s="19">
+        <v>44734</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="F15" s="22"/>
-      <c r="G15" s="20"/>
+      <c r="G15" s="20">
+        <v>4</v>
+      </c>
     </row>
     <row r="16" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="18">
         <v>6</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="21"/>
+      <c r="C16" s="19">
+        <v>44736</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>15</v>
+      </c>
       <c r="F16" s="22"/>
-      <c r="G16" s="20"/>
+      <c r="G16" s="20">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="18">
@@ -1591,7 +1607,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="D15:D20">
+  <conditionalFormatting sqref="D17:D20">
     <cfRule type="expression" dxfId="9" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -1606,7 +1622,7 @@
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D14">
+  <conditionalFormatting sqref="D12:D16">
     <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -1659,6 +1675,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -1877,15 +1902,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
   <ds:schemaRefs>
@@ -1904,6 +1920,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1920,12 +1944,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -184,6 +184,22 @@
     <t>山本</t>
     <rPh sb="0" eb="2">
       <t>ヤマモト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「①円弧配列」仕様を調査及び、改修内容・工数精査</t>
+    <rPh sb="10" eb="12">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>カイシュウナイヨウ</t>
+    </rPh>
+    <rPh sb="20" eb="24">
+      <t>コウスウセイサ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -479,7 +495,14 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="11">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1188,7 +1211,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1260,7 +1283,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>28.5</v>
+        <v>35.5</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1409,11 +1432,19 @@
       <c r="B17" s="18">
         <v>7</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="21"/>
+      <c r="C17" s="19">
+        <v>44739</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="F17" s="22"/>
-      <c r="G17" s="20"/>
+      <c r="G17" s="20">
+        <v>7</v>
+      </c>
     </row>
     <row r="18" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="18">
@@ -1607,52 +1638,57 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="D17:D20">
+  <conditionalFormatting sqref="D18:D20">
+    <cfRule type="expression" dxfId="10" priority="14" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B11:C11 B12:B36 C12:C19">
     <cfRule type="expression" dxfId="9" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 B12:B36 C12:C19">
+  <conditionalFormatting sqref="D11">
     <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="7" priority="11" stopIfTrue="1">
+  <conditionalFormatting sqref="D12:D16">
+    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D16">
+  <conditionalFormatting sqref="C20">
     <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
+  <conditionalFormatting sqref="D21:D28">
     <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21:D28">
+  <conditionalFormatting sqref="C21:C27">
     <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="3" priority="6" stopIfTrue="1">
+  <conditionalFormatting sqref="D29:D36">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D36">
+  <conditionalFormatting sqref="C29:C36">
     <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:C36">
+  <conditionalFormatting sqref="C28">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="D17">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -1667,23 +1703,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -1902,32 +1921,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1944,4 +1955,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -1211,7 +1211,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1283,7 +1283,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>35.5</v>
+        <v>42</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1450,11 +1450,19 @@
       <c r="B18" s="18">
         <v>8</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="21"/>
+      <c r="C18" s="19">
+        <v>44740</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>17</v>
+      </c>
       <c r="F18" s="22"/>
-      <c r="G18" s="20"/>
+      <c r="G18" s="20">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="19" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="18">
@@ -1638,7 +1646,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="D18:D20">
+  <conditionalFormatting sqref="D19:D20">
     <cfRule type="expression" dxfId="10" priority="14" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -1688,7 +1696,7 @@
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17">
+  <conditionalFormatting sqref="D17:D18">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -1703,6 +1711,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -1921,24 +1946,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1955,29 +1988,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -171,9 +171,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>定例会議</t>
-  </si>
-  <si>
     <t>「①円弧配列」仕様を調査</t>
     <rPh sb="10" eb="12">
       <t>チョウサ</t>
@@ -201,6 +198,19 @@
     <rPh sb="20" eb="24">
       <t>コウスウセイサ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>定例会議</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・定例会議
+・「①円弧配列」仕様を調査及び、改修内容・工数精査</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「①円弧配列」仕様を調査及び、改修内容・工数精査</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1211,7 +1221,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1283,7 +1293,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>42</v>
+        <v>51.5</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1328,10 +1338,10 @@
         <v>44727</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="20">
@@ -1346,10 +1356,10 @@
         <v>44728</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="20">
@@ -1364,10 +1374,10 @@
         <v>44732</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="20">
@@ -1382,10 +1392,10 @@
         <v>44733</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="20">
@@ -1400,10 +1410,10 @@
         <v>44734</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E15" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="20">
@@ -1418,10 +1428,10 @@
         <v>44736</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="20">
@@ -1436,10 +1446,10 @@
         <v>44739</v>
       </c>
       <c r="D17" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="21" t="s">
         <v>16</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>17</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="20">
@@ -1454,35 +1464,51 @@
         <v>44740</v>
       </c>
       <c r="D18" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="21" t="s">
         <v>16</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>17</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="20">
         <v>6.5</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" ht="24" x14ac:dyDescent="0.15">
       <c r="B19" s="18">
         <v>9</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="21"/>
+      <c r="C19" s="19">
+        <v>44741</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>18</v>
+      </c>
       <c r="F19" s="22"/>
-      <c r="G19" s="20"/>
+      <c r="G19" s="20">
+        <v>3</v>
+      </c>
     </row>
     <row r="20" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="18">
         <v>10</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="21"/>
+      <c r="C20" s="19">
+        <v>44742</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>19</v>
+      </c>
       <c r="F20" s="22"/>
-      <c r="G20" s="20"/>
+      <c r="G20" s="20">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="21" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="18">
@@ -1646,12 +1672,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="D19:D20">
-    <cfRule type="expression" dxfId="10" priority="14" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B11:C11 B12:B36 C12:C19">
+  <conditionalFormatting sqref="B11:C11 B12:B36 C12:C20">
     <cfRule type="expression" dxfId="9" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -1663,11 +1684,6 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D16">
     <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C20">
-    <cfRule type="expression" dxfId="6" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1696,7 +1712,7 @@
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D18">
+  <conditionalFormatting sqref="D17:D20">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -1719,15 +1735,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -1946,6 +1953,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
   <ds:schemaRefs>
@@ -1964,14 +1980,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1988,4 +1996,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
@@ -13,33 +13,57 @@
   </bookViews>
   <sheets>
     <sheet name="作業報告書" sheetId="1" r:id="rId1"/>
+    <sheet name="作業報告書_6月分" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
+    <definedName name="__123Graph_CDK1" localSheetId="1" hidden="1">[1]ﾃﾞｰﾀ!#REF!</definedName>
     <definedName name="__123Graph_CDK1" hidden="1">[1]ﾃﾞｰﾀ!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">作業報告書!$B$10:$G$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業報告書_6月分!$B$10:$G$10</definedName>
+    <definedName name="AA" localSheetId="1">#REF!</definedName>
     <definedName name="AA">#REF!</definedName>
+    <definedName name="AB" localSheetId="1">#REF!</definedName>
     <definedName name="AB">#REF!</definedName>
+    <definedName name="AC" localSheetId="1">#REF!</definedName>
     <definedName name="AC">#REF!</definedName>
+    <definedName name="AD" localSheetId="1">#REF!</definedName>
     <definedName name="AD">#REF!</definedName>
+    <definedName name="AE" localSheetId="1">#REF!</definedName>
     <definedName name="AE">#REF!</definedName>
+    <definedName name="AF" localSheetId="1">#REF!</definedName>
     <definedName name="AF">#REF!</definedName>
+    <definedName name="AG" localSheetId="1">#REF!</definedName>
     <definedName name="AG">#REF!</definedName>
+    <definedName name="AH" localSheetId="1">#REF!</definedName>
     <definedName name="AH">#REF!</definedName>
+    <definedName name="AI" localSheetId="1">#REF!</definedName>
     <definedName name="AI">#REF!</definedName>
+    <definedName name="AJ" localSheetId="1">#REF!</definedName>
     <definedName name="AJ">#REF!</definedName>
+    <definedName name="AK" localSheetId="1">#REF!</definedName>
     <definedName name="AK">#REF!</definedName>
+    <definedName name="BA" localSheetId="1">#REF!</definedName>
     <definedName name="BA">#REF!</definedName>
+    <definedName name="BB" localSheetId="1">#REF!</definedName>
     <definedName name="BB">#REF!</definedName>
+    <definedName name="BC" localSheetId="1">#REF!</definedName>
     <definedName name="BC">#REF!</definedName>
+    <definedName name="BD" localSheetId="1">#REF!</definedName>
     <definedName name="BD">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">作業報告書!$A$1:$H$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">作業報告書_6月分!$A$1:$H$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">作業報告書!$9:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="1">作業報告書_6月分!$9:$10</definedName>
+    <definedName name="SC_ADDRESS" localSheetId="1">#REF!</definedName>
     <definedName name="SC_ADDRESS">#REF!</definedName>
+    <definedName name="SC_TEL" localSheetId="1">#REF!</definedName>
     <definedName name="SC_TEL">#REF!</definedName>
+    <definedName name="SC_ZIPCODE" localSheetId="1">#REF!</definedName>
     <definedName name="SC_ZIPCODE">#REF!</definedName>
+    <definedName name="工事番号と工事件名" localSheetId="1">#REF!</definedName>
     <definedName name="工事番号と工事件名">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -59,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -211,6 +235,31 @@
   </si>
   <si>
     <t>「①円弧配列」仕様を調査及び、改修内容・工数精査</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山本</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマモト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・SQLテーブル構成出力方法調査
+・「②円弧配列」仕様を調査</t>
+    <rPh sb="8" eb="10">
+      <t>コウセイ</t>
+    </rPh>
+    <rPh sb="10" eb="14">
+      <t>シュツリョクホウホウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・「②円弧配列」仕様を調査</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -505,7 +554,56 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
+  <dxfs count="18">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -903,6 +1001,308 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1758462</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>41439</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>102679</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5099539" y="127443"/>
+          <a:ext cx="1865842" cy="414851"/>
+          <a:chOff x="1178" y="9"/>
+          <a:chExt cx="226" cy="45"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 7" descr="logo_trans02">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1246" y="9"/>
+            <a:ext cx="150" cy="45"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1178" y="32"/>
+            <a:ext cx="226" cy="21"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:srgbClr val="FFFFFF"/>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:srgbClr val="333333">
+                  <a:alpha val="19000"/>
+                </a:srgbClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="0" scaled="1"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>77404</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1447576" cy="422167"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="180975" y="77404"/>
+          <a:ext cx="1447576" cy="422167"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="36576" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="HG創英角ｺﾞｼｯｸUB"/>
+              <a:ea typeface="HG創英角ｺﾞｼｯｸUB"/>
+            </a:rPr>
+            <a:t>作業報告書</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>43236</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1657</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>24758</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="43236" y="552443"/>
+          <a:ext cx="6368746" cy="43815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="333333"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="19000"/>
+              </a:srgbClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="0" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -1221,7 +1621,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="G21" sqref="G21"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1293,7 +1693,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>51.5</v>
+        <v>8</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1330,22 +1730,22 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="B11" s="18">
         <v>1</v>
       </c>
       <c r="C11" s="19">
-        <v>44727</v>
+        <v>44743</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="20">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="2:9" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
@@ -1353,162 +1753,98 @@
         <v>2</v>
       </c>
       <c r="C12" s="19">
-        <v>44728</v>
+        <v>44744</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>15</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="20">
-        <v>5.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B13" s="18">
         <v>3</v>
       </c>
-      <c r="C13" s="19">
-        <v>44732</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>14</v>
-      </c>
+      <c r="C13" s="19"/>
+      <c r="D13" s="18"/>
+      <c r="E13" s="21"/>
       <c r="F13" s="22"/>
-      <c r="G13" s="20">
-        <v>6.5</v>
-      </c>
+      <c r="G13" s="20"/>
     </row>
     <row r="14" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="18">
         <v>4</v>
       </c>
-      <c r="C14" s="19">
-        <v>44733</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>14</v>
-      </c>
+      <c r="C14" s="19"/>
+      <c r="D14" s="18"/>
+      <c r="E14" s="21"/>
       <c r="F14" s="22"/>
-      <c r="G14" s="20">
-        <v>6.5</v>
-      </c>
+      <c r="G14" s="20"/>
     </row>
     <row r="15" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="18">
         <v>5</v>
       </c>
-      <c r="C15" s="19">
-        <v>44734</v>
-      </c>
-      <c r="D15" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>14</v>
-      </c>
+      <c r="C15" s="19"/>
+      <c r="D15" s="18"/>
+      <c r="E15" s="21"/>
       <c r="F15" s="22"/>
-      <c r="G15" s="20">
-        <v>4</v>
-      </c>
+      <c r="G15" s="20"/>
     </row>
     <row r="16" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="18">
         <v>6</v>
       </c>
-      <c r="C16" s="19">
-        <v>44736</v>
-      </c>
-      <c r="D16" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>14</v>
-      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="18"/>
+      <c r="E16" s="21"/>
       <c r="F16" s="22"/>
-      <c r="G16" s="20">
-        <v>5</v>
-      </c>
+      <c r="G16" s="20"/>
     </row>
     <row r="17" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="18">
         <v>7</v>
       </c>
-      <c r="C17" s="19">
-        <v>44739</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="C17" s="19"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="21"/>
       <c r="F17" s="22"/>
-      <c r="G17" s="20">
-        <v>7</v>
-      </c>
+      <c r="G17" s="20"/>
     </row>
     <row r="18" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="18">
         <v>8</v>
       </c>
-      <c r="C18" s="19">
-        <v>44740</v>
-      </c>
-      <c r="D18" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>16</v>
-      </c>
+      <c r="C18" s="19"/>
+      <c r="D18" s="18"/>
+      <c r="E18" s="21"/>
       <c r="F18" s="22"/>
-      <c r="G18" s="20">
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="24" x14ac:dyDescent="0.15">
+      <c r="G18" s="20"/>
+    </row>
+    <row r="19" spans="2:7" ht="12" x14ac:dyDescent="0.15">
       <c r="B19" s="18">
         <v>9</v>
       </c>
-      <c r="C19" s="19">
-        <v>44741</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>18</v>
-      </c>
+      <c r="C19" s="19"/>
+      <c r="D19" s="18"/>
+      <c r="E19" s="21"/>
       <c r="F19" s="22"/>
-      <c r="G19" s="20">
-        <v>3</v>
-      </c>
+      <c r="G19" s="20"/>
     </row>
     <row r="20" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="18">
         <v>10</v>
       </c>
-      <c r="C20" s="19">
-        <v>44742</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>19</v>
-      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="21"/>
       <c r="F20" s="22"/>
-      <c r="G20" s="20">
-        <v>6.5</v>
-      </c>
+      <c r="G20" s="20"/>
     </row>
     <row r="21" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="18">
@@ -1673,27 +2009,542 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B11:C11 B12:B36 C12:C20">
-    <cfRule type="expression" dxfId="9" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:D12">
+    <cfRule type="expression" dxfId="16" priority="12" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D13:D16">
+    <cfRule type="expression" dxfId="15" priority="10" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:D28">
+    <cfRule type="expression" dxfId="14" priority="8" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C27">
+    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:D36">
+    <cfRule type="expression" dxfId="12" priority="4" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:C36">
+    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D20">
+    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.27559055118110237" right="0.23622047244094491" top="0.47244094488188981" bottom="0.39370078740157483" header="0.23622047244094491" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:I36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C62" sqref="C62:I63"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.25" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="40.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.25" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="2.625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="2:9" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="2:9" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="2:9" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="2:9" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="15">
+        <f>SUM(G11:G29)</f>
+        <v>51.5</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="2:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="3"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="2:9" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="B11" s="18">
+        <v>1</v>
+      </c>
+      <c r="C11" s="19">
+        <v>44727</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="B12" s="18">
+        <v>2</v>
+      </c>
+      <c r="C12" s="19">
+        <v>44728</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="20">
+        <v>5.5</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="18">
+        <v>3</v>
+      </c>
+      <c r="C13" s="19">
+        <v>44732</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="20">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="18">
+        <v>4</v>
+      </c>
+      <c r="C14" s="19">
+        <v>44733</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="20">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="18">
+        <v>5</v>
+      </c>
+      <c r="C15" s="19">
+        <v>44734</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="18">
+        <v>6</v>
+      </c>
+      <c r="C16" s="19">
+        <v>44736</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="18">
+        <v>7</v>
+      </c>
+      <c r="C17" s="19">
+        <v>44739</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="18">
+        <v>8</v>
+      </c>
+      <c r="C18" s="19">
+        <v>44740</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="20">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="24" x14ac:dyDescent="0.15">
+      <c r="B19" s="18">
+        <v>9</v>
+      </c>
+      <c r="C19" s="19">
+        <v>44741</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="18">
+        <v>10</v>
+      </c>
+      <c r="C20" s="19">
+        <v>44742</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="20">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="18">
+        <v>11</v>
+      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="18">
+        <v>12</v>
+      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="18">
+        <v>13</v>
+      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="21"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="18">
+        <v>14</v>
+      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="21"/>
+      <c r="F24" s="22"/>
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="18">
+        <v>15</v>
+      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="21"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="18">
+        <v>16</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="2:7" ht="12" x14ac:dyDescent="0.15">
+      <c r="B27" s="18">
+        <v>17</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="2:7" ht="12" x14ac:dyDescent="0.15">
+      <c r="B28" s="18">
+        <v>18</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="2:7" ht="12" x14ac:dyDescent="0.15">
+      <c r="B29" s="18">
+        <v>19</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="18">
+        <v>20</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="18">
+        <v>21</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="18">
+        <v>22</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="18">
+        <v>23</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="18">
+        <v>24</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="18">
+        <v>25</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="2:7" ht="12" x14ac:dyDescent="0.15">
+      <c r="B36" s="18">
+        <v>26</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="B11:C11 B12:B36 C12:C20">
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="8" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D16">
-    <cfRule type="expression" dxfId="7" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D28">
-    <cfRule type="expression" dxfId="5" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="4" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -260,6 +260,13 @@
   </si>
   <si>
     <t>・「②円弧配列」仕様を調査</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・「②円弧配列」仕様を調査、工数検討</t>
+    <rPh sb="14" eb="18">
+      <t>コウスウケントウ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1693,7 +1700,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1770,11 +1777,19 @@
       <c r="B13" s="18">
         <v>3</v>
       </c>
-      <c r="C13" s="19"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="21"/>
+      <c r="C13" s="19">
+        <v>44745</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>23</v>
+      </c>
       <c r="F13" s="22"/>
-      <c r="G13" s="20"/>
+      <c r="G13" s="20">
+        <v>5</v>
+      </c>
     </row>
     <row r="14" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="18">
@@ -2013,12 +2028,12 @@
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D12">
+  <conditionalFormatting sqref="D11:D13">
     <cfRule type="expression" dxfId="16" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D13:D16">
+  <conditionalFormatting sqref="D14:D16">
     <cfRule type="expression" dxfId="15" priority="10" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -2578,11 +2593,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2805,27 +2821,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2850,9 +2856,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -266,6 +266,60 @@
     <t>・「②円弧配列」仕様を調査、工数検討</t>
     <rPh sb="14" eb="18">
       <t>コウスウケントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・「②円弧配列」仕様を調査
+・「④面積変動」仕様を調査
+・「⑤パターン面積変動解析」仕様を調査
+・「③TM登録」仕様を調査</t>
+    <rPh sb="22" eb="24">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="45" eb="47">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="56" eb="58">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="59" eb="61">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・「②円弧配列」仕様を調査
+・各機能の規模感を精査
+・SQLテーブル構成データの確認</t>
+    <rPh sb="15" eb="18">
+      <t>カクキノウ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>キボカン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>セイサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・パタ検査サンプル図面データ確認
+・「③TM登録」仕様を調査</t>
+    <rPh sb="3" eb="5">
+      <t>ケンサ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ズメン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>カクニン</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -1628,7 +1682,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1700,7 +1754,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1760,7 +1814,7 @@
         <v>2</v>
       </c>
       <c r="C12" s="19">
-        <v>44744</v>
+        <v>44746</v>
       </c>
       <c r="D12" s="18" t="s">
         <v>15</v>
@@ -1778,7 +1832,7 @@
         <v>3</v>
       </c>
       <c r="C13" s="19">
-        <v>44745</v>
+        <v>44747</v>
       </c>
       <c r="D13" s="18" t="s">
         <v>15</v>
@@ -1791,35 +1845,59 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B14" s="18">
         <v>4</v>
       </c>
-      <c r="C14" s="19"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="21"/>
+      <c r="C14" s="19">
+        <v>44748</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>25</v>
+      </c>
       <c r="F14" s="22"/>
-      <c r="G14" s="20"/>
-    </row>
-    <row r="15" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G14" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B15" s="18">
         <v>5</v>
       </c>
-      <c r="C15" s="19"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="21"/>
+      <c r="C15" s="19">
+        <v>44749</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>26</v>
+      </c>
       <c r="F15" s="22"/>
-      <c r="G15" s="20"/>
-    </row>
-    <row r="16" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G15" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="18">
         <v>6</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="18"/>
-      <c r="E16" s="21"/>
+      <c r="C16" s="19">
+        <v>44750</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>24</v>
+      </c>
       <c r="F16" s="22"/>
-      <c r="G16" s="20"/>
+      <c r="G16" s="20">
+        <v>5</v>
+      </c>
     </row>
     <row r="17" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="18">
@@ -2024,47 +2102,47 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B11:C11 B12:B36 C12:C20">
-    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D13">
-    <cfRule type="expression" dxfId="16" priority="12" stopIfTrue="1">
+  <conditionalFormatting sqref="D11:D16">
+    <cfRule type="expression" dxfId="17" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D16">
-    <cfRule type="expression" dxfId="15" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="10" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D28">
-    <cfRule type="expression" dxfId="14" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:D36">
-    <cfRule type="expression" dxfId="12" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:C36">
-    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D20">
-    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2539,47 +2617,47 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B11:C11 B12:B36 C12:C20">
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D16">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D28">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:D36">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:C36">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D20">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2593,12 +2671,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2821,17 +2898,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2856,18 +2943,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -321,6 +321,10 @@
     <rPh sb="14" eb="16">
       <t>カクニン</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「③TM登録」仕様を調査</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1682,7 +1686,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="G16" sqref="G16"/>
+      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1754,7 +1758,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1903,11 +1907,19 @@
       <c r="B17" s="18">
         <v>7</v>
       </c>
-      <c r="C17" s="19"/>
-      <c r="D17" s="18"/>
-      <c r="E17" s="21"/>
+      <c r="C17" s="19">
+        <v>44753</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>27</v>
+      </c>
       <c r="F17" s="22"/>
-      <c r="G17" s="20"/>
+      <c r="G17" s="20">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="18">
@@ -2102,47 +2114,47 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B11:C11 B12:B36 C12:C20">
-    <cfRule type="expression" dxfId="0" priority="13" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D16">
-    <cfRule type="expression" dxfId="17" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D16">
-    <cfRule type="expression" dxfId="16" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="10" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D28">
-    <cfRule type="expression" dxfId="15" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="14" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="14" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:D36">
-    <cfRule type="expression" dxfId="13" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:C36">
-    <cfRule type="expression" dxfId="12" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="11" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D20">
-    <cfRule type="expression" dxfId="10" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2617,47 +2629,47 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B11:C11 B12:B36 C12:C20">
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D16">
-    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D28">
-    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:D36">
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:C36">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D20">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2671,11 +2683,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2898,27 +2911,17 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2943,9 +2946,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -325,6 +325,20 @@
   </si>
   <si>
     <t>「③TM登録」仕様を調査</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・「③TM登録」仕様を調査
+・「⑥C表作成」仕様を調査</t>
+    <rPh sb="18" eb="21">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>チョウサ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1686,7 +1700,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="G18" sqref="G18"/>
+      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1758,7 +1772,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1921,15 +1935,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B18" s="18">
         <v>8</v>
       </c>
-      <c r="C18" s="19"/>
-      <c r="D18" s="18"/>
-      <c r="E18" s="21"/>
+      <c r="C18" s="19">
+        <v>44754</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>28</v>
+      </c>
       <c r="F18" s="22"/>
-      <c r="G18" s="20"/>
+      <c r="G18" s="20">
+        <v>7</v>
+      </c>
     </row>
     <row r="19" spans="2:7" ht="12" x14ac:dyDescent="0.15">
       <c r="B19" s="18">
@@ -2683,12 +2705,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2911,17 +2932,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -2946,18 +2977,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -338,6 +338,95 @@
     </rPh>
     <rPh sb="25" eb="27">
       <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山本</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマモト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・「③TM登録」の概算工数を検討
+・各機能の外部EXE及びDB使用有無の調査</t>
+    <rPh sb="18" eb="21">
+      <t>カクキノウ</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ガイブ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>シヨウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ユウム</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>チョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・定例会議
+・「③TM登録」の概算工数を検討</t>
+    <rPh sb="1" eb="5">
+      <t>テイレイカイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・「⑥C表作成」仕様を調査</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・「⑥C表作成」の概算工数を検討
+・「⑧解析用データ変換」の仕様調査</t>
+    <rPh sb="30" eb="34">
+      <t>シヨウチョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・「⑥C表作成」の概算工数を検討</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・「⑧解析用データ変換」の概算工数を検討
+・「③TM登録」のDB構成調査
+・「⑥C表作成」のDB構成調査
+・DB、環境構築回りの工数を検討</t>
+    <rPh sb="32" eb="36">
+      <t>コウセイチョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・「③TM登録」の概算工数を検討
+・「⑥C表作成」の概算工数を検討
+・「⑧解析用データ変換」の概算工数を検討
+・DB、環境構築回りの工数を検討</t>
+    <rPh sb="47" eb="49">
+      <t>ガイサン</t>
+    </rPh>
+    <rPh sb="49" eb="51">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="52" eb="54">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="59" eb="64">
+      <t>カンキョウコウチクマワ</t>
+    </rPh>
+    <rPh sb="66" eb="68">
+      <t>コウスウ</t>
+    </rPh>
+    <rPh sb="69" eb="71">
+      <t>ケントウ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -566,7 +655,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -624,6 +713,9 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="Calc Currency (0)" xfId="1"/>
@@ -633,7 +725,21 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="18">
+  <dxfs count="20">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1698,9 +1804,9 @@
   <dimension ref="B1:I36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1772,7 +1878,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1953,95 +2059,167 @@
         <v>7</v>
       </c>
     </row>
-    <row r="19" spans="2:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="18">
         <v>9</v>
       </c>
-      <c r="C19" s="19"/>
-      <c r="D19" s="18"/>
-      <c r="E19" s="21"/>
+      <c r="C19" s="19">
+        <v>44755</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>31</v>
+      </c>
       <c r="F19" s="22"/>
-      <c r="G19" s="20"/>
+      <c r="G19" s="20">
+        <v>5</v>
+      </c>
     </row>
     <row r="20" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="18">
         <v>10</v>
       </c>
-      <c r="C20" s="19"/>
-      <c r="D20" s="18"/>
-      <c r="E20" s="21"/>
+      <c r="C20" s="19">
+        <v>44756</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="F20" s="22"/>
-      <c r="G20" s="20"/>
+      <c r="G20" s="20">
+        <v>5</v>
+      </c>
     </row>
     <row r="21" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="18">
         <v>11</v>
       </c>
-      <c r="C21" s="19"/>
-      <c r="D21" s="18"/>
-      <c r="E21" s="21"/>
+      <c r="C21" s="19">
+        <v>44757</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="F21" s="22"/>
-      <c r="G21" s="20"/>
+      <c r="G21" s="20">
+        <v>5</v>
+      </c>
     </row>
     <row r="22" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="18">
         <v>12</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="21"/>
+      <c r="C22" s="19">
+        <v>44761</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>34</v>
+      </c>
       <c r="F22" s="22"/>
-      <c r="G22" s="20"/>
-    </row>
-    <row r="23" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G22" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="18">
         <v>13</v>
       </c>
-      <c r="C23" s="19"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="21"/>
+      <c r="C23" s="19">
+        <v>44762</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>33</v>
+      </c>
       <c r="F23" s="22"/>
-      <c r="G23" s="20"/>
-    </row>
-    <row r="24" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G23" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="18">
         <v>14</v>
       </c>
-      <c r="C24" s="19"/>
-      <c r="D24" s="18"/>
-      <c r="E24" s="21"/>
+      <c r="C24" s="19">
+        <v>44763</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>35</v>
+      </c>
       <c r="F24" s="22"/>
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G24" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="18">
         <v>15</v>
       </c>
-      <c r="C25" s="19"/>
-      <c r="D25" s="18"/>
-      <c r="E25" s="21"/>
+      <c r="C25" s="19">
+        <v>44764</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>36</v>
+      </c>
       <c r="F25" s="22"/>
-      <c r="G25" s="20"/>
-    </row>
-    <row r="26" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G25" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="18">
         <v>16</v>
       </c>
-      <c r="C26" s="19"/>
-      <c r="D26" s="18"/>
-      <c r="E26" s="21"/>
+      <c r="C26" s="19">
+        <v>44767</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>30</v>
+      </c>
       <c r="F26" s="22"/>
-      <c r="G26" s="20"/>
+      <c r="G26" s="20">
+        <v>2</v>
+      </c>
     </row>
     <row r="27" spans="2:7" ht="12" x14ac:dyDescent="0.15">
       <c r="B27" s="18">
         <v>17</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="18"/>
-      <c r="E27" s="21"/>
+      <c r="C27" s="19">
+        <v>44768</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>32</v>
+      </c>
       <c r="F27" s="22"/>
-      <c r="G27" s="20"/>
+      <c r="G27" s="20">
+        <v>2</v>
+      </c>
     </row>
     <row r="28" spans="2:7" ht="12" x14ac:dyDescent="0.15">
       <c r="B28" s="18">
@@ -2135,48 +2313,53 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="B11:C11 B12:B36 C12:C20">
-    <cfRule type="expression" dxfId="17" priority="13" stopIfTrue="1">
+  <conditionalFormatting sqref="B11:C11 B12:B36 C12:C21">
+    <cfRule type="expression" dxfId="19" priority="15" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D16">
-    <cfRule type="expression" dxfId="16" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="14" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D16">
-    <cfRule type="expression" dxfId="15" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21:D28">
-    <cfRule type="expression" dxfId="14" priority="8" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="13" priority="7" stopIfTrue="1">
+  <conditionalFormatting sqref="D19:D28">
+    <cfRule type="expression" dxfId="16" priority="10" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:D36">
+    <cfRule type="expression" dxfId="14" priority="6" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:C36">
+    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
     <cfRule type="expression" dxfId="12" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:C36">
+  <conditionalFormatting sqref="D17:D20">
     <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="C22:C25">
     <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D20">
-    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="C26:C27">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2651,47 +2834,47 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B11:C11 B12:B36 C12:C20">
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D16">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D28">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:D36">
-    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:C36">
-    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D20">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>

--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -396,16 +396,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>・「⑧解析用データ変換」の概算工数を検討
-・「③TM登録」のDB構成調査
-・「⑥C表作成」のDB構成調査
-・DB、環境構築回りの工数を検討</t>
-    <rPh sb="32" eb="36">
-      <t>コウセイチョウサ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・「③TM登録」の概算工数を検討
 ・「⑥C表作成」の概算工数を検討
 ・「⑧解析用データ変換」の概算工数を検討
@@ -428,6 +418,52 @@
     <rPh sb="69" eb="71">
       <t>ケントウ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・「⑧解析用データ変換」の仕様調査及び概算工数を検討
+・「③TM登録」のDB構成調査
+・「⑥C表作成」のDB構成調査
+・DB、環境構築回りの工数を検討</t>
+    <rPh sb="17" eb="18">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="38" eb="42">
+      <t>コウセイチョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・パタ検レクチャー
+・①円弧配列改良要望-2の工数検討</t>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="12" eb="16">
+      <t>エンコハイレツ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>カイリョウヨウボウ</t>
+    </rPh>
+    <rPh sb="23" eb="27">
+      <t>コウスウケントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・工数微調整
+・定例会議
+・①円弧配列改良要望-2の工数検討</t>
+    <rPh sb="1" eb="6">
+      <t>コウスウビチョウセイ</t>
+    </rPh>
+    <rPh sb="8" eb="12">
+      <t>テイレイカイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・①円弧配列改良要望-2の工数検討</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -725,14 +761,7 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="20">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="19">
     <dxf>
       <fill>
         <patternFill>
@@ -1804,9 +1833,9 @@
   <dimension ref="B1:I36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="G28" sqref="G28"/>
+      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1878,7 +1907,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>86</v>
+        <v>101</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -2160,7 +2189,7 @@
         <v>29</v>
       </c>
       <c r="E24" s="23" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="20">
@@ -2178,7 +2207,7 @@
         <v>29</v>
       </c>
       <c r="E25" s="23" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F25" s="22"/>
       <c r="G25" s="20">
@@ -2221,35 +2250,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="2:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:7" ht="36" x14ac:dyDescent="0.15">
       <c r="B28" s="18">
         <v>18</v>
       </c>
-      <c r="C28" s="19"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="21"/>
+      <c r="C28" s="19">
+        <v>44769</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>38</v>
+      </c>
       <c r="F28" s="22"/>
-      <c r="G28" s="20"/>
+      <c r="G28" s="20">
+        <v>7</v>
+      </c>
     </row>
     <row r="29" spans="2:7" ht="12" x14ac:dyDescent="0.15">
       <c r="B29" s="18">
         <v>19</v>
       </c>
-      <c r="C29" s="19"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="21"/>
+      <c r="C29" s="19">
+        <v>44770</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>39</v>
+      </c>
       <c r="F29" s="22"/>
-      <c r="G29" s="20"/>
-    </row>
-    <row r="30" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G29" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="18">
         <v>20</v>
       </c>
-      <c r="C30" s="19"/>
-      <c r="D30" s="18"/>
-      <c r="E30" s="21"/>
+      <c r="C30" s="19">
+        <v>44771</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>37</v>
+      </c>
       <c r="F30" s="22"/>
-      <c r="G30" s="20"/>
+      <c r="G30" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="31" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="18">
@@ -2314,37 +2367,32 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B11:C11 B12:B36 C12:C21">
-    <cfRule type="expression" dxfId="19" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="15" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D16">
-    <cfRule type="expression" dxfId="18" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="14" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D16">
-    <cfRule type="expression" dxfId="17" priority="12" stopIfTrue="1">
+    <cfRule type="expression" dxfId="16" priority="12" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D19:D28">
-    <cfRule type="expression" dxfId="16" priority="10" stopIfTrue="1">
+  <conditionalFormatting sqref="D19:D30">
+    <cfRule type="expression" dxfId="15" priority="10" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D36">
+  <conditionalFormatting sqref="D31:D36">
     <cfRule type="expression" dxfId="14" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:C36">
+  <conditionalFormatting sqref="C31:C36">
     <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="12" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2358,8 +2406,8 @@
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C27">
-    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="C26:C30">
+    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2834,47 +2882,47 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B11:C11 B12:B36 C12:C20">
-    <cfRule type="expression" dxfId="9" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="8" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D16">
-    <cfRule type="expression" dxfId="7" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D28">
-    <cfRule type="expression" dxfId="6" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="5" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:D36">
-    <cfRule type="expression" dxfId="4" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:C36">
-    <cfRule type="expression" dxfId="3" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="2" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D20">
-    <cfRule type="expression" dxfId="1" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2888,6 +2936,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
@@ -2895,7 +2952,7 @@
 </p:properties>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -3114,16 +3171,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
@@ -3140,7 +3196,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3157,12 +3213,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
@@ -14,56 +14,80 @@
   <sheets>
     <sheet name="作業報告書" sheetId="1" r:id="rId1"/>
     <sheet name="作業報告書_6月分" sheetId="2" r:id="rId2"/>
+    <sheet name="作業報告書_7月分" sheetId="3" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="__123Graph_CDK1" localSheetId="1" hidden="1">[1]ﾃﾞｰﾀ!#REF!</definedName>
+    <definedName name="__123Graph_CDK1" localSheetId="2" hidden="1">[1]ﾃﾞｰﾀ!#REF!</definedName>
     <definedName name="__123Graph_CDK1" hidden="1">[1]ﾃﾞｰﾀ!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">作業報告書!$B$10:$G$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業報告書_6月分!$B$10:$G$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">作業報告書_7月分!$B$10:$G$10</definedName>
     <definedName name="AA" localSheetId="1">#REF!</definedName>
+    <definedName name="AA" localSheetId="2">#REF!</definedName>
     <definedName name="AA">#REF!</definedName>
     <definedName name="AB" localSheetId="1">#REF!</definedName>
+    <definedName name="AB" localSheetId="2">#REF!</definedName>
     <definedName name="AB">#REF!</definedName>
     <definedName name="AC" localSheetId="1">#REF!</definedName>
+    <definedName name="AC" localSheetId="2">#REF!</definedName>
     <definedName name="AC">#REF!</definedName>
     <definedName name="AD" localSheetId="1">#REF!</definedName>
+    <definedName name="AD" localSheetId="2">#REF!</definedName>
     <definedName name="AD">#REF!</definedName>
     <definedName name="AE" localSheetId="1">#REF!</definedName>
+    <definedName name="AE" localSheetId="2">#REF!</definedName>
     <definedName name="AE">#REF!</definedName>
     <definedName name="AF" localSheetId="1">#REF!</definedName>
+    <definedName name="AF" localSheetId="2">#REF!</definedName>
     <definedName name="AF">#REF!</definedName>
     <definedName name="AG" localSheetId="1">#REF!</definedName>
+    <definedName name="AG" localSheetId="2">#REF!</definedName>
     <definedName name="AG">#REF!</definedName>
     <definedName name="AH" localSheetId="1">#REF!</definedName>
+    <definedName name="AH" localSheetId="2">#REF!</definedName>
     <definedName name="AH">#REF!</definedName>
     <definedName name="AI" localSheetId="1">#REF!</definedName>
+    <definedName name="AI" localSheetId="2">#REF!</definedName>
     <definedName name="AI">#REF!</definedName>
     <definedName name="AJ" localSheetId="1">#REF!</definedName>
+    <definedName name="AJ" localSheetId="2">#REF!</definedName>
     <definedName name="AJ">#REF!</definedName>
     <definedName name="AK" localSheetId="1">#REF!</definedName>
+    <definedName name="AK" localSheetId="2">#REF!</definedName>
     <definedName name="AK">#REF!</definedName>
     <definedName name="BA" localSheetId="1">#REF!</definedName>
+    <definedName name="BA" localSheetId="2">#REF!</definedName>
     <definedName name="BA">#REF!</definedName>
     <definedName name="BB" localSheetId="1">#REF!</definedName>
+    <definedName name="BB" localSheetId="2">#REF!</definedName>
     <definedName name="BB">#REF!</definedName>
     <definedName name="BC" localSheetId="1">#REF!</definedName>
+    <definedName name="BC" localSheetId="2">#REF!</definedName>
     <definedName name="BC">#REF!</definedName>
     <definedName name="BD" localSheetId="1">#REF!</definedName>
+    <definedName name="BD" localSheetId="2">#REF!</definedName>
     <definedName name="BD">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">作業報告書!$A$1:$H$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">作業報告書_6月分!$A$1:$H$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">作業報告書_7月分!$A$1:$H$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">作業報告書!$9:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">作業報告書_6月分!$9:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="2">作業報告書_7月分!$9:$10</definedName>
     <definedName name="SC_ADDRESS" localSheetId="1">#REF!</definedName>
+    <definedName name="SC_ADDRESS" localSheetId="2">#REF!</definedName>
     <definedName name="SC_ADDRESS">#REF!</definedName>
     <definedName name="SC_TEL" localSheetId="1">#REF!</definedName>
+    <definedName name="SC_TEL" localSheetId="2">#REF!</definedName>
     <definedName name="SC_TEL">#REF!</definedName>
     <definedName name="SC_ZIPCODE" localSheetId="1">#REF!</definedName>
+    <definedName name="SC_ZIPCODE" localSheetId="2">#REF!</definedName>
     <definedName name="SC_ZIPCODE">#REF!</definedName>
     <definedName name="工事番号と工事件名" localSheetId="1">#REF!</definedName>
+    <definedName name="工事番号と工事件名" localSheetId="2">#REF!</definedName>
     <definedName name="工事番号と工事件名">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -83,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="49">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -235,13 +259,6 @@
   </si>
   <si>
     <t>「①円弧配列」仕様を調査及び、改修内容・工数精査</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>山本</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマモト</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -342,13 +359,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>山本</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマモト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・「③TM登録」の概算工数を検討
 ・各機能の外部EXE及びDB使用有無の調査</t>
     <rPh sb="18" eb="21">
@@ -464,6 +474,128 @@
   </si>
   <si>
     <t>・①円弧配列改良要望-2の工数検討</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山本</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマモト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C表作成機能の要件定義書作成</t>
+  </si>
+  <si>
+    <t>C表作成機能の要件定義書作成</t>
+    <rPh sb="1" eb="4">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="7" eb="14">
+      <t>ヨウケンテイギショサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・C表作成機能解析</t>
+    <rPh sb="2" eb="5">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・C表作成機能解析
+・定例会議</t>
+    <rPh sb="11" eb="15">
+      <t>テイレイカイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・C表作成機能解析
+・円弧配列、C表作成の操作レクチャー
+・仕様検討</t>
+    <rPh sb="5" eb="9">
+      <t>キノウカイセキ</t>
+    </rPh>
+    <rPh sb="11" eb="15">
+      <t>エンコハイレツ</t>
+    </rPh>
+    <rPh sb="17" eb="20">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ソウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>円弧配列動作環境の構築</t>
+    <rPh sb="0" eb="8">
+      <t>エンコハイレツドウサカンキョウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウチク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>円弧配列機能、C表作成機能解析</t>
+    <rPh sb="0" eb="2">
+      <t>エンコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>カイセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・C表作成機能解析</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・円弧合配列機能、C表作成機能解析</t>
+    <rPh sb="1" eb="8">
+      <t>エンコアハイレツキノウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・追加受領ソース確認
+・TM登録解析</t>
+    <rPh sb="1" eb="3">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ジュリョウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>トウロクカイセキ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -761,7 +893,63 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="27">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1517,6 +1705,308 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1758462</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>41439</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>102679</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5099539" y="127443"/>
+          <a:ext cx="1865842" cy="414851"/>
+          <a:chOff x="1178" y="9"/>
+          <a:chExt cx="226" cy="45"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 7" descr="logo_trans02">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1246" y="9"/>
+            <a:ext cx="150" cy="45"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1178" y="32"/>
+            <a:ext cx="226" cy="21"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:srgbClr val="FFFFFF"/>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:srgbClr val="333333">
+                  <a:alpha val="19000"/>
+                </a:srgbClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="0" scaled="1"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>77404</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1447576" cy="422167"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="180975" y="77404"/>
+          <a:ext cx="1447576" cy="422167"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="36576" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="HG創英角ｺﾞｼｯｸUB"/>
+              <a:ea typeface="HG創英角ｺﾞｼｯｸUB"/>
+            </a:rPr>
+            <a:t>作業報告書</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>43236</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1657</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>24758</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="43236" y="552443"/>
+          <a:ext cx="6368746" cy="43815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="333333"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="19000"/>
+              </a:srgbClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="0" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -1833,9 +2323,9 @@
   <dimension ref="B1:I36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
+      <selection pane="bottomLeft" activeCell="G11" sqref="G11:G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1907,7 +2397,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -1949,17 +2439,17 @@
         <v>1</v>
       </c>
       <c r="C11" s="19">
-        <v>44743</v>
+        <v>44775</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>21</v>
+        <v>38</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>48</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="20">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="2:9" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
@@ -1967,89 +2457,89 @@
         <v>2</v>
       </c>
       <c r="C12" s="19">
-        <v>44746</v>
+        <v>44776</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E12" s="21" t="s">
-        <v>22</v>
+        <v>38</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="12" x14ac:dyDescent="0.15">
       <c r="B13" s="18">
         <v>3</v>
       </c>
       <c r="C13" s="19">
-        <v>44747</v>
+        <v>44777</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>23</v>
+        <v>38</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>44</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="12" x14ac:dyDescent="0.15">
       <c r="B14" s="18">
         <v>4</v>
       </c>
       <c r="C14" s="19">
-        <v>44748</v>
+        <v>44778</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>25</v>
+        <v>38</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>45</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="12" x14ac:dyDescent="0.15">
       <c r="B15" s="18">
         <v>5</v>
       </c>
       <c r="C15" s="19">
-        <v>44749</v>
+        <v>44781</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>26</v>
+        <v>38</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="20">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="12" x14ac:dyDescent="0.15">
       <c r="B16" s="18">
         <v>6</v>
       </c>
       <c r="C16" s="19">
-        <v>44750</v>
+        <v>44782</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E16" s="21" t="s">
-        <v>24</v>
+        <v>38</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>46</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="20">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -2057,17 +2547,17 @@
         <v>7</v>
       </c>
       <c r="C17" s="19">
-        <v>44753</v>
+        <v>44783</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E17" s="21" t="s">
-        <v>27</v>
+        <v>38</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>42</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="20">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -2075,234 +2565,170 @@
         <v>8</v>
       </c>
       <c r="C18" s="19">
-        <v>44754</v>
+        <v>44795</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E18" s="21" t="s">
-        <v>28</v>
+        <v>38</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>47</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="18">
         <v>9</v>
       </c>
       <c r="C19" s="19">
-        <v>44755</v>
+        <v>44796</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" s="21" t="s">
-        <v>31</v>
+        <v>38</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>41</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="36" x14ac:dyDescent="0.15">
       <c r="B20" s="18">
         <v>10</v>
       </c>
       <c r="C20" s="19">
-        <v>44756</v>
+        <v>44797</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E20" s="21" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>43</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="18">
         <v>11</v>
       </c>
       <c r="C21" s="19">
-        <v>44757</v>
+        <v>44798</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E21" s="21" t="s">
-        <v>32</v>
+        <v>38</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>39</v>
       </c>
       <c r="F21" s="22"/>
       <c r="G21" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="18">
         <v>12</v>
       </c>
       <c r="C22" s="19">
-        <v>44761</v>
+        <v>44799</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E22" s="21" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>40</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="20">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" ht="12" x14ac:dyDescent="0.15">
       <c r="B23" s="18">
         <v>13</v>
       </c>
-      <c r="C23" s="19">
-        <v>44762</v>
-      </c>
-      <c r="D23" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="21" t="s">
-        <v>33</v>
-      </c>
+      <c r="C23" s="19"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="21"/>
       <c r="F23" s="22"/>
-      <c r="G23" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="2:7" ht="12" x14ac:dyDescent="0.15">
       <c r="B24" s="18">
         <v>14</v>
       </c>
-      <c r="C24" s="19">
-        <v>44763</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E24" s="23" t="s">
-        <v>36</v>
-      </c>
+      <c r="C24" s="19"/>
+      <c r="D24" s="18"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="22"/>
-      <c r="G24" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="2:7" ht="12" x14ac:dyDescent="0.15">
       <c r="B25" s="18">
         <v>15</v>
       </c>
-      <c r="C25" s="19">
-        <v>44764</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="23" t="s">
-        <v>35</v>
-      </c>
+      <c r="C25" s="19"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="22"/>
-      <c r="G25" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G25" s="20"/>
+    </row>
+    <row r="26" spans="2:7" ht="12" x14ac:dyDescent="0.15">
       <c r="B26" s="18">
         <v>16</v>
       </c>
-      <c r="C26" s="19">
-        <v>44767</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E26" s="21" t="s">
-        <v>30</v>
-      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="21"/>
       <c r="F26" s="22"/>
-      <c r="G26" s="20">
-        <v>2</v>
-      </c>
+      <c r="G26" s="20"/>
     </row>
     <row r="27" spans="2:7" ht="12" x14ac:dyDescent="0.15">
       <c r="B27" s="18">
         <v>17</v>
       </c>
-      <c r="C27" s="19">
-        <v>44768</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="E27" s="21" t="s">
-        <v>32</v>
-      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="21"/>
       <c r="F27" s="22"/>
-      <c r="G27" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="2:7" ht="12" x14ac:dyDescent="0.15">
       <c r="B28" s="18">
         <v>18</v>
       </c>
-      <c r="C28" s="19">
-        <v>44769</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E28" s="21" t="s">
-        <v>38</v>
-      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="21"/>
       <c r="F28" s="22"/>
-      <c r="G28" s="20">
-        <v>7</v>
-      </c>
+      <c r="G28" s="20"/>
     </row>
     <row r="29" spans="2:7" ht="12" x14ac:dyDescent="0.15">
       <c r="B29" s="18">
         <v>19</v>
       </c>
-      <c r="C29" s="19">
-        <v>44770</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E29" s="21" t="s">
-        <v>39</v>
-      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="21"/>
       <c r="F29" s="22"/>
-      <c r="G29" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="2:7" ht="12" x14ac:dyDescent="0.15">
       <c r="B30" s="18">
         <v>20</v>
       </c>
-      <c r="C30" s="19">
-        <v>44771</v>
-      </c>
-      <c r="D30" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E30" s="21" t="s">
-        <v>37</v>
-      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="21"/>
       <c r="F30" s="22"/>
-      <c r="G30" s="20">
-        <v>8</v>
-      </c>
+      <c r="G30" s="20"/>
     </row>
     <row r="31" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="18">
@@ -2366,48 +2792,38 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="B11:C11 B12:B36 C12:C21">
-    <cfRule type="expression" dxfId="18" priority="15" stopIfTrue="1">
+  <conditionalFormatting sqref="B11:C11 B12:B36 C11:C23">
+    <cfRule type="expression" dxfId="26" priority="15" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D16">
-    <cfRule type="expression" dxfId="17" priority="14" stopIfTrue="1">
+  <conditionalFormatting sqref="D11:D23">
+    <cfRule type="expression" dxfId="25" priority="14" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14:D16">
-    <cfRule type="expression" dxfId="16" priority="12" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D19:D30">
-    <cfRule type="expression" dxfId="15" priority="10" stopIfTrue="1">
+  <conditionalFormatting sqref="D24:D30">
+    <cfRule type="expression" dxfId="23" priority="10" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D36">
-    <cfRule type="expression" dxfId="14" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C36">
-    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D20">
-    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C25">
-    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
+  <conditionalFormatting sqref="C24:C25">
+    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C26:C30">
-    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2882,46 +3298,641 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B11:C11 B12:B36 C12:C20">
+    <cfRule type="expression" dxfId="17" priority="9" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11">
+    <cfRule type="expression" dxfId="16" priority="8" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D12:D16">
+    <cfRule type="expression" dxfId="15" priority="7" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D21:D28">
+    <cfRule type="expression" dxfId="14" priority="6" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C21:C27">
+    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29:D36">
+    <cfRule type="expression" dxfId="12" priority="4" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C29:C36">
+    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C28">
+    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D20">
+    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.27559055118110237" right="0.23622047244094491" top="0.47244094488188981" bottom="0.39370078740157483" header="0.23622047244094491" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:I36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C62" sqref="C62:I63"/>
+      <selection pane="bottomLeft" activeCell="L30" sqref="L30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.25" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="40.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.25" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="2.625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="2:9" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="2:9" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="2:9" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="2:9" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="15">
+        <f>SUM(G11:G29)</f>
+        <v>101</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="2:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="3"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="2:9" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="B11" s="18">
+        <v>1</v>
+      </c>
+      <c r="C11" s="19">
+        <v>44743</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="B12" s="18">
+        <v>2</v>
+      </c>
+      <c r="C12" s="19">
+        <v>44746</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="18">
+        <v>3</v>
+      </c>
+      <c r="C13" s="19">
+        <v>44747</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="18">
+        <v>4</v>
+      </c>
+      <c r="C14" s="19">
+        <v>44748</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="18">
+        <v>5</v>
+      </c>
+      <c r="C15" s="19">
+        <v>44749</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="18">
+        <v>6</v>
+      </c>
+      <c r="C16" s="19">
+        <v>44750</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="18">
+        <v>7</v>
+      </c>
+      <c r="C17" s="19">
+        <v>44753</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="18">
+        <v>8</v>
+      </c>
+      <c r="C18" s="19">
+        <v>44754</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="18">
+        <v>9</v>
+      </c>
+      <c r="C19" s="19">
+        <v>44755</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="18">
+        <v>10</v>
+      </c>
+      <c r="C20" s="19">
+        <v>44756</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="18">
+        <v>11</v>
+      </c>
+      <c r="C21" s="19">
+        <v>44757</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="18">
+        <v>12</v>
+      </c>
+      <c r="C22" s="19">
+        <v>44761</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="18">
+        <v>13</v>
+      </c>
+      <c r="C23" s="19">
+        <v>44762</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>31</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="51.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="18">
+        <v>14</v>
+      </c>
+      <c r="C24" s="19">
+        <v>44763</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="55.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="18">
+        <v>15</v>
+      </c>
+      <c r="C25" s="19">
+        <v>44764</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="32.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="18">
+        <v>16</v>
+      </c>
+      <c r="C26" s="19">
+        <v>44767</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="12" x14ac:dyDescent="0.15">
+      <c r="B27" s="18">
+        <v>17</v>
+      </c>
+      <c r="C27" s="19">
+        <v>44768</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="B28" s="18">
+        <v>18</v>
+      </c>
+      <c r="C28" s="19">
+        <v>44769</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="F28" s="22"/>
+      <c r="G28" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="12" x14ac:dyDescent="0.15">
+      <c r="B29" s="18">
+        <v>19</v>
+      </c>
+      <c r="C29" s="19">
+        <v>44770</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="22"/>
+      <c r="G29" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="33" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="18">
+        <v>20</v>
+      </c>
+      <c r="C30" s="19">
+        <v>44771</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="F30" s="22"/>
+      <c r="G30" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="18">
+        <v>21</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="18">
+        <v>22</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="18">
+        <v>23</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="18">
+        <v>24</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="18">
+        <v>25</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="2:7" ht="12" x14ac:dyDescent="0.15">
+      <c r="B36" s="18">
+        <v>26</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="B11:C11 B12:B36 C12:C21">
     <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11">
+  <conditionalFormatting sqref="D11:D16">
     <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D12:D16">
+  <conditionalFormatting sqref="D14:D16">
     <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D21:D28">
+  <conditionalFormatting sqref="D19:D30">
     <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C21:C27">
+  <conditionalFormatting sqref="D31:D36">
     <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D29:D36">
+  <conditionalFormatting sqref="C31:C36">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C29:C36">
+  <conditionalFormatting sqref="D17:D20">
     <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C28">
+  <conditionalFormatting sqref="C22:C25">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D20">
+  <conditionalFormatting sqref="C26:C30">
     <cfRule type="expression" dxfId="0" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -2936,23 +3947,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -3171,10 +4165,38 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3197,20 +4219,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
@@ -107,7 +107,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="50">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -487,19 +487,6 @@
     <t>C表作成機能の要件定義書作成</t>
   </si>
   <si>
-    <t>C表作成機能の要件定義書作成</t>
-    <rPh sb="1" eb="4">
-      <t>ヒョウサクセイ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="7" eb="14">
-      <t>ヨウケンテイギショサクセイ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・C表作成機能解析</t>
     <rPh sb="2" eb="5">
       <t>ヒョウサクセイ</t>
@@ -595,6 +582,43 @@
     </rPh>
     <rPh sb="14" eb="18">
       <t>トウロクカイセキ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・AdvanceCAD→AutoCADへのメニュー移植方法調査
+・C表作成機能の要件定義書作成</t>
+    <rPh sb="25" eb="31">
+      <t>イショクホウホウチョウサ</t>
+    </rPh>
+    <rPh sb="34" eb="37">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <rPh sb="37" eb="39">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="40" eb="47">
+      <t>ヨウケンテイギショサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・AdvanceCAD→AutoCADへのメニュー移植方法調査、検討
+・C表作成機能の要件定義書作成</t>
+    <rPh sb="25" eb="31">
+      <t>イショクホウホウチョウサ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="37" eb="40">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="43" eb="50">
+      <t>ヨウケンテイギショサクセイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -893,21 +917,7 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="27">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="43"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="25">
     <dxf>
       <fill>
         <patternFill>
@@ -2323,9 +2333,9 @@
   <dimension ref="B1:I36"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="10" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="G11" sqref="G11:G22"/>
+      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2397,7 +2407,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>78</v>
+        <v>99</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -2445,7 +2455,7 @@
         <v>38</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="20">
@@ -2463,7 +2473,7 @@
         <v>38</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="20">
@@ -2481,7 +2491,7 @@
         <v>38</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="20">
@@ -2499,7 +2509,7 @@
         <v>38</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="20">
@@ -2517,7 +2527,7 @@
         <v>38</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="20">
@@ -2535,7 +2545,7 @@
         <v>38</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="20">
@@ -2553,7 +2563,7 @@
         <v>38</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="20">
@@ -2571,7 +2581,7 @@
         <v>38</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="20">
@@ -2589,7 +2599,7 @@
         <v>38</v>
       </c>
       <c r="E19" s="23" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="20">
@@ -2607,7 +2617,7 @@
         <v>38</v>
       </c>
       <c r="E20" s="23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="20">
@@ -2632,7 +2642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B22" s="18">
         <v>12</v>
       </c>
@@ -2643,42 +2653,60 @@
         <v>38</v>
       </c>
       <c r="E22" s="23" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="F22" s="22"/>
       <c r="G22" s="20">
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="2:7" ht="12" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="18">
         <v>13</v>
       </c>
-      <c r="C23" s="19"/>
+      <c r="C23" s="19">
+        <v>44802</v>
+      </c>
       <c r="D23" s="18"/>
-      <c r="E23" s="21"/>
+      <c r="E23" s="23" t="s">
+        <v>49</v>
+      </c>
       <c r="F23" s="22"/>
-      <c r="G23" s="20"/>
-    </row>
-    <row r="24" spans="2:7" ht="12" x14ac:dyDescent="0.15">
+      <c r="G23" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B24" s="18">
         <v>14</v>
       </c>
-      <c r="C24" s="19"/>
+      <c r="C24" s="19">
+        <v>44803</v>
+      </c>
       <c r="D24" s="18"/>
-      <c r="E24" s="23"/>
+      <c r="E24" s="23" t="s">
+        <v>49</v>
+      </c>
       <c r="F24" s="22"/>
-      <c r="G24" s="20"/>
-    </row>
-    <row r="25" spans="2:7" ht="12" x14ac:dyDescent="0.15">
+      <c r="G24" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B25" s="18">
         <v>15</v>
       </c>
-      <c r="C25" s="19"/>
+      <c r="C25" s="19">
+        <v>44804</v>
+      </c>
       <c r="D25" s="18"/>
-      <c r="E25" s="23"/>
+      <c r="E25" s="23" t="s">
+        <v>49</v>
+      </c>
       <c r="F25" s="22"/>
-      <c r="G25" s="20"/>
+      <c r="G25" s="20">
+        <v>8</v>
+      </c>
     </row>
     <row r="26" spans="2:7" ht="12" x14ac:dyDescent="0.15">
       <c r="B26" s="18">
@@ -2793,27 +2821,27 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B11:C11 B12:B36 C11:C23">
-    <cfRule type="expression" dxfId="26" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="15" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D23">
-    <cfRule type="expression" dxfId="25" priority="14" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="14" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D24:D30">
-    <cfRule type="expression" dxfId="23" priority="10" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="10" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D36">
-    <cfRule type="expression" dxfId="22" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C36">
-    <cfRule type="expression" dxfId="21" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3947,6 +3975,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -4165,38 +4210,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -4219,9 +4236,20 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
@@ -15,79 +15,127 @@
     <sheet name="作業報告書" sheetId="1" r:id="rId1"/>
     <sheet name="作業報告書_6月分" sheetId="2" r:id="rId2"/>
     <sheet name="作業報告書_7月分" sheetId="3" r:id="rId3"/>
+    <sheet name="作業報告書_8月分" sheetId="4" r:id="rId4"/>
+    <sheet name="作業報告書_9月分" sheetId="5" r:id="rId5"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId6"/>
   </externalReferences>
   <definedNames>
     <definedName name="__123Graph_CDK1" localSheetId="1" hidden="1">[1]ﾃﾞｰﾀ!#REF!</definedName>
     <definedName name="__123Graph_CDK1" localSheetId="2" hidden="1">[1]ﾃﾞｰﾀ!#REF!</definedName>
+    <definedName name="__123Graph_CDK1" localSheetId="3" hidden="1">[1]ﾃﾞｰﾀ!#REF!</definedName>
+    <definedName name="__123Graph_CDK1" localSheetId="4" hidden="1">[1]ﾃﾞｰﾀ!#REF!</definedName>
     <definedName name="__123Graph_CDK1" hidden="1">[1]ﾃﾞｰﾀ!#REF!</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">作業報告書!$B$10:$G$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">作業報告書_6月分!$B$10:$G$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">作業報告書_7月分!$B$10:$G$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">作業報告書_8月分!$B$10:$G$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">作業報告書_9月分!$B$10:$G$10</definedName>
     <definedName name="AA" localSheetId="1">#REF!</definedName>
     <definedName name="AA" localSheetId="2">#REF!</definedName>
+    <definedName name="AA" localSheetId="3">#REF!</definedName>
+    <definedName name="AA" localSheetId="4">#REF!</definedName>
     <definedName name="AA">#REF!</definedName>
     <definedName name="AB" localSheetId="1">#REF!</definedName>
     <definedName name="AB" localSheetId="2">#REF!</definedName>
+    <definedName name="AB" localSheetId="3">#REF!</definedName>
+    <definedName name="AB" localSheetId="4">#REF!</definedName>
     <definedName name="AB">#REF!</definedName>
     <definedName name="AC" localSheetId="1">#REF!</definedName>
     <definedName name="AC" localSheetId="2">#REF!</definedName>
+    <definedName name="AC" localSheetId="3">#REF!</definedName>
+    <definedName name="AC" localSheetId="4">#REF!</definedName>
     <definedName name="AC">#REF!</definedName>
     <definedName name="AD" localSheetId="1">#REF!</definedName>
     <definedName name="AD" localSheetId="2">#REF!</definedName>
+    <definedName name="AD" localSheetId="3">#REF!</definedName>
+    <definedName name="AD" localSheetId="4">#REF!</definedName>
     <definedName name="AD">#REF!</definedName>
     <definedName name="AE" localSheetId="1">#REF!</definedName>
     <definedName name="AE" localSheetId="2">#REF!</definedName>
+    <definedName name="AE" localSheetId="3">#REF!</definedName>
+    <definedName name="AE" localSheetId="4">#REF!</definedName>
     <definedName name="AE">#REF!</definedName>
     <definedName name="AF" localSheetId="1">#REF!</definedName>
     <definedName name="AF" localSheetId="2">#REF!</definedName>
+    <definedName name="AF" localSheetId="3">#REF!</definedName>
+    <definedName name="AF" localSheetId="4">#REF!</definedName>
     <definedName name="AF">#REF!</definedName>
     <definedName name="AG" localSheetId="1">#REF!</definedName>
     <definedName name="AG" localSheetId="2">#REF!</definedName>
+    <definedName name="AG" localSheetId="3">#REF!</definedName>
+    <definedName name="AG" localSheetId="4">#REF!</definedName>
     <definedName name="AG">#REF!</definedName>
     <definedName name="AH" localSheetId="1">#REF!</definedName>
     <definedName name="AH" localSheetId="2">#REF!</definedName>
+    <definedName name="AH" localSheetId="3">#REF!</definedName>
+    <definedName name="AH" localSheetId="4">#REF!</definedName>
     <definedName name="AH">#REF!</definedName>
     <definedName name="AI" localSheetId="1">#REF!</definedName>
     <definedName name="AI" localSheetId="2">#REF!</definedName>
+    <definedName name="AI" localSheetId="3">#REF!</definedName>
+    <definedName name="AI" localSheetId="4">#REF!</definedName>
     <definedName name="AI">#REF!</definedName>
     <definedName name="AJ" localSheetId="1">#REF!</definedName>
     <definedName name="AJ" localSheetId="2">#REF!</definedName>
+    <definedName name="AJ" localSheetId="3">#REF!</definedName>
+    <definedName name="AJ" localSheetId="4">#REF!</definedName>
     <definedName name="AJ">#REF!</definedName>
     <definedName name="AK" localSheetId="1">#REF!</definedName>
     <definedName name="AK" localSheetId="2">#REF!</definedName>
+    <definedName name="AK" localSheetId="3">#REF!</definedName>
+    <definedName name="AK" localSheetId="4">#REF!</definedName>
     <definedName name="AK">#REF!</definedName>
     <definedName name="BA" localSheetId="1">#REF!</definedName>
     <definedName name="BA" localSheetId="2">#REF!</definedName>
+    <definedName name="BA" localSheetId="3">#REF!</definedName>
+    <definedName name="BA" localSheetId="4">#REF!</definedName>
     <definedName name="BA">#REF!</definedName>
     <definedName name="BB" localSheetId="1">#REF!</definedName>
     <definedName name="BB" localSheetId="2">#REF!</definedName>
+    <definedName name="BB" localSheetId="3">#REF!</definedName>
+    <definedName name="BB" localSheetId="4">#REF!</definedName>
     <definedName name="BB">#REF!</definedName>
     <definedName name="BC" localSheetId="1">#REF!</definedName>
     <definedName name="BC" localSheetId="2">#REF!</definedName>
+    <definedName name="BC" localSheetId="3">#REF!</definedName>
+    <definedName name="BC" localSheetId="4">#REF!</definedName>
     <definedName name="BC">#REF!</definedName>
     <definedName name="BD" localSheetId="1">#REF!</definedName>
     <definedName name="BD" localSheetId="2">#REF!</definedName>
+    <definedName name="BD" localSheetId="3">#REF!</definedName>
+    <definedName name="BD" localSheetId="4">#REF!</definedName>
     <definedName name="BD">#REF!</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">作業報告書!$A$1:$H$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">作業報告書_6月分!$A$1:$H$36</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">作業報告書_7月分!$A$1:$H$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">作業報告書_8月分!$A$1:$H$36</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">作業報告書_9月分!$A$1:$H$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">作業報告書!$9:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">作業報告書_6月分!$9:$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">作業報告書_7月分!$9:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="3">作業報告書_8月分!$9:$10</definedName>
+    <definedName name="_xlnm.Print_Titles" localSheetId="4">作業報告書_9月分!$9:$10</definedName>
     <definedName name="SC_ADDRESS" localSheetId="1">#REF!</definedName>
     <definedName name="SC_ADDRESS" localSheetId="2">#REF!</definedName>
+    <definedName name="SC_ADDRESS" localSheetId="3">#REF!</definedName>
+    <definedName name="SC_ADDRESS" localSheetId="4">#REF!</definedName>
     <definedName name="SC_ADDRESS">#REF!</definedName>
     <definedName name="SC_TEL" localSheetId="1">#REF!</definedName>
     <definedName name="SC_TEL" localSheetId="2">#REF!</definedName>
+    <definedName name="SC_TEL" localSheetId="3">#REF!</definedName>
+    <definedName name="SC_TEL" localSheetId="4">#REF!</definedName>
     <definedName name="SC_TEL">#REF!</definedName>
     <definedName name="SC_ZIPCODE" localSheetId="1">#REF!</definedName>
     <definedName name="SC_ZIPCODE" localSheetId="2">#REF!</definedName>
+    <definedName name="SC_ZIPCODE" localSheetId="3">#REF!</definedName>
+    <definedName name="SC_ZIPCODE" localSheetId="4">#REF!</definedName>
     <definedName name="SC_ZIPCODE">#REF!</definedName>
     <definedName name="工事番号と工事件名" localSheetId="1">#REF!</definedName>
     <definedName name="工事番号と工事件名" localSheetId="2">#REF!</definedName>
+    <definedName name="工事番号と工事件名" localSheetId="3">#REF!</definedName>
+    <definedName name="工事番号と工事件名" localSheetId="4">#REF!</definedName>
     <definedName name="工事番号と工事件名">#REF!</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -107,7 +155,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="72">
   <si>
     <t>プロジェクト名</t>
     <rPh sb="6" eb="7">
@@ -477,13 +525,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>山本</t>
-    <rPh sb="0" eb="2">
-      <t>ヤマモト</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>C表作成機能の要件定義書作成</t>
   </si>
   <si>
@@ -619,6 +660,288 @@
     </rPh>
     <rPh sb="43" eb="50">
       <t>ヨウケンテイギショサクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・円弧配列機能調査
+・定例会議</t>
+    <rPh sb="11" eb="15">
+      <t>テイレイカイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・C表作成要件定義</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・C表作成要件定義
+・円弧配列機能調査</t>
+    <rPh sb="2" eb="3">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・C表作成要件定義
+・円弧配列機能調査</t>
+    <rPh sb="11" eb="15">
+      <t>エンコハイレツ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>キノウチョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・円弧配列、C表機能調査
+・定例会議</t>
+    <rPh sb="1" eb="5">
+      <t>エンコハイレツ</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>テイレイカイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・AdvanceCAD→AutoCADへのメニュー移植方法調査、検討</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・円弧配列機能調査</t>
+    <rPh sb="1" eb="5">
+      <t>エンコハイレツ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>キノウチョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・C表作成再見積もり
+・C表作成調査資料精査</t>
+    <rPh sb="2" eb="5">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>サイミツ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>チョウサシリョウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>セイサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・C表作成要件定義</t>
+    <rPh sb="2" eb="3">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ヨウケン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・C表作成機能概要フロー図作成
+・C表作成機能調査</t>
+    <rPh sb="2" eb="5">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>キノウガイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ズサクセイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="21" eb="25">
+      <t>キノウチョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・C表作成機能概要フロー図作成
+・C表作成機能調査</t>
+    <rPh sb="2" eb="5">
+      <t>ヒョウサクセイ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>キノウガイヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="15">
+      <t>ズサクセイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>チョウサヒョウサクセイキノウガイヨウズサクセイヒョウキノウチョウサ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・円弧配列機能調査
+・C表作成要件定義</t>
+    <rPh sb="1" eb="3">
+      <t>エンコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハイレツ</t>
+    </rPh>
+    <rPh sb="5" eb="9">
+      <t>キノウチョウサ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ヨウケンテイギ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・C表要件定義
+・報告資料作成</t>
+    <rPh sb="2" eb="7">
+      <t>ヒョウヨウケンテイギ</t>
+    </rPh>
+    <rPh sb="9" eb="13">
+      <t>ホウコクシリョウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・C表要件定義</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C表改良要望確認
+テンプレート草案検討</t>
+    <rPh sb="1" eb="8">
+      <t>ヒョウカイリョウヨウボウカクニン</t>
+    </rPh>
+    <rPh sb="15" eb="19">
+      <t>ソウアンケントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C表改良要望確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・キックオフミーティング
+・C表フロー作成</t>
+    <rPh sb="15" eb="16">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・C表フロー作成
+・AutoCADメニューデザイン、及び導入資料作成</t>
+    <rPh sb="26" eb="27">
+      <t>オヨ</t>
+    </rPh>
+    <rPh sb="28" eb="32">
+      <t>ドウニュウシリョウ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・C表フロー作成
+・AutoCADメニュー導入資料作成
+・テンプレート草案検討</t>
+    <rPh sb="21" eb="25">
+      <t>ドウニュウシリョウ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・AutoCADメニュー検討
+・C表フロー作成</t>
+    <rPh sb="12" eb="14">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>・AutoCADメニュー検討
+・C表フロー作成
+・C表テストケース検討</t>
+    <rPh sb="12" eb="14">
+      <t>ケントウ</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヒョウ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ケントウ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>山本</t>
+    <rPh sb="0" eb="2">
+      <t>ヤマモト</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>C表改良要望確認
+テンプレート草案検討
+定例会議</t>
+    <rPh sb="20" eb="24">
+      <t>テイレイカイギ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -917,7 +1240,77 @@
     <cellStyle name="桁区切り 2" xfId="5"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="35">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor indexed="43"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1141,8 +1534,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5099539" y="127443"/>
-          <a:ext cx="1865842" cy="414851"/>
+          <a:off x="5092212" y="127443"/>
+          <a:ext cx="1864377" cy="403861"/>
           <a:chOff x="1178" y="9"/>
           <a:chExt cx="226" cy="45"/>
         </a:xfrm>
@@ -2017,6 +2410,610 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1758462</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>41439</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>102679</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5099539" y="127443"/>
+          <a:ext cx="1865842" cy="414851"/>
+          <a:chOff x="1178" y="9"/>
+          <a:chExt cx="226" cy="45"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 7" descr="logo_trans02">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1246" y="9"/>
+            <a:ext cx="150" cy="45"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1178" y="32"/>
+            <a:ext cx="226" cy="21"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:srgbClr val="FFFFFF"/>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:srgbClr val="333333">
+                  <a:alpha val="19000"/>
+                </a:srgbClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="0" scaled="1"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>77404</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1447576" cy="422167"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="180975" y="77404"/>
+          <a:ext cx="1447576" cy="422167"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="36576" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="HG創英角ｺﾞｼｯｸUB"/>
+              <a:ea typeface="HG創英角ｺﾞｼｯｸUB"/>
+            </a:rPr>
+            <a:t>作業報告書</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>43236</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1657</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>24758</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="43236" y="552443"/>
+          <a:ext cx="6368746" cy="43815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="333333"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="19000"/>
+              </a:srgbClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="0" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1758462</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>127443</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>41439</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>102679</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="2" name="Group 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGrpSpPr>
+          <a:grpSpLocks/>
+        </xdr:cNvGrpSpPr>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5099539" y="127443"/>
+          <a:ext cx="1865842" cy="414851"/>
+          <a:chOff x="1178" y="9"/>
+          <a:chExt cx="226" cy="45"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="3" name="Picture 7" descr="logo_trans02">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+            <a:extLst>
+              <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+                <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              </a:ext>
+            </a:extLst>
+          </a:blip>
+          <a:srcRect/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1246" y="9"/>
+            <a:ext cx="150" cy="45"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:noFill/>
+          <a:extLst>
+            <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+              <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a:solidFill>
+                  <a:srgbClr val="FFFFFF"/>
+                </a:solidFill>
+              </a14:hiddenFill>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="4" name="Rectangle 8">
+            <a:extLst>
+              <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+              </a:ext>
+            </a:extLst>
+          </xdr:cNvPr>
+          <xdr:cNvSpPr>
+            <a:spLocks noChangeArrowheads="1"/>
+          </xdr:cNvSpPr>
+        </xdr:nvSpPr>
+        <xdr:spPr bwMode="auto">
+          <a:xfrm>
+            <a:off x="1178" y="32"/>
+            <a:ext cx="226" cy="21"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:srgbClr val="FFFFFF"/>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:srgbClr val="333333">
+                  <a:alpha val="19000"/>
+                </a:srgbClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="0" scaled="1"/>
+          </a:gradFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:extLst>
+            <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+              <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+                <a:solidFill>
+                  <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                </a:solidFill>
+                <a:miter lim="800000"/>
+                <a:headEnd/>
+                <a:tailEnd/>
+              </a14:hiddenLine>
+            </a:ext>
+          </a:extLst>
+        </xdr:spPr>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr sz="1000"/>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>77404</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="1447576" cy="422167"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="Rectangle 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="180975" y="77404"/>
+          <a:ext cx="1447576" cy="422167"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="9"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr wrap="none" lIns="36576" tIns="27432" rIns="0" bIns="27432" anchor="ctr" upright="1">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="2200" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="HG創英角ｺﾞｼｯｸUB"/>
+              <a:ea typeface="HG創英角ｺﾞｼｯｸUB"/>
+            </a:rPr>
+            <a:t>作業報告書</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>43236</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>123818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1657</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>24758</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="Rectangle 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="43236" y="552443"/>
+          <a:ext cx="6368746" cy="43815"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:srgbClr val="333333"/>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:srgbClr val="FFFFFF">
+                <a:alpha val="19000"/>
+              </a:srgbClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="0" scaled="1"/>
+        </a:gradFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:extLst>
+          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+              <a:solidFill>
+                <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd/>
+            </a14:hiddenLine>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="18288" tIns="0" rIns="0" bIns="0" anchor="ctr" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -2332,10 +3329,10 @@
   </sheetPr>
   <dimension ref="B1:I36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <pane ySplit="10" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="G26" sqref="G26"/>
+      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -2407,7 +3404,7 @@
       </c>
       <c r="G8" s="15">
         <f>SUM(G11:G29)</f>
-        <v>99</v>
+        <v>52</v>
       </c>
       <c r="H8" s="16" t="s">
         <v>5</v>
@@ -2444,269 +3441,227 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="2:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:9" s="4" customFormat="1" ht="36" x14ac:dyDescent="0.15">
       <c r="B11" s="18">
         <v>1</v>
       </c>
       <c r="C11" s="19">
-        <v>44775</v>
+        <v>44851</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="E11" s="23" t="s">
-        <v>47</v>
+        <v>69</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="20">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.15">
       <c r="B12" s="18">
         <v>2</v>
       </c>
       <c r="C12" s="19">
-        <v>44776</v>
+        <v>44852</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="E12" s="23" t="s">
-        <v>43</v>
+        <v>68</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="12" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="24" x14ac:dyDescent="0.15">
       <c r="B13" s="18">
         <v>3</v>
       </c>
       <c r="C13" s="19">
-        <v>44777</v>
+        <v>44853</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="E13" s="23" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="F13" s="22"/>
       <c r="G13" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="12" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="24" x14ac:dyDescent="0.15">
       <c r="B14" s="18">
         <v>4</v>
       </c>
       <c r="C14" s="19">
-        <v>44778</v>
+        <v>44854</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="E14" s="23" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="F14" s="22"/>
       <c r="G14" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" ht="12" x14ac:dyDescent="0.15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="36" x14ac:dyDescent="0.15">
       <c r="B15" s="18">
         <v>5</v>
       </c>
       <c r="C15" s="19">
-        <v>44781</v>
+        <v>44855</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="E15" s="23" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="F15" s="22"/>
       <c r="G15" s="20">
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="2:9" ht="12" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:9" ht="18.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="18">
         <v>6</v>
       </c>
       <c r="C16" s="19">
-        <v>44782</v>
+        <v>44859</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="E16" s="23" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="24" x14ac:dyDescent="0.15">
       <c r="B17" s="18">
         <v>7</v>
       </c>
       <c r="C17" s="19">
-        <v>44783</v>
+        <v>44860</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="E17" s="23" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="F17" s="22"/>
       <c r="G17" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="24" x14ac:dyDescent="0.15">
       <c r="B18" s="18">
         <v>8</v>
       </c>
       <c r="C18" s="19">
-        <v>44795</v>
+        <v>44861</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>38</v>
+        <v>70</v>
       </c>
       <c r="E18" s="23" t="s">
-        <v>46</v>
+        <v>63</v>
       </c>
       <c r="F18" s="22"/>
       <c r="G18" s="20">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="36" x14ac:dyDescent="0.15">
       <c r="B19" s="18">
         <v>9</v>
       </c>
       <c r="C19" s="19">
-        <v>44796</v>
+        <v>44862</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E19" s="23" t="s">
-        <v>40</v>
+        <v>70</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>71</v>
       </c>
       <c r="F19" s="22"/>
       <c r="G19" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" ht="36" x14ac:dyDescent="0.15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="12" x14ac:dyDescent="0.15">
       <c r="B20" s="18">
         <v>10</v>
       </c>
-      <c r="C20" s="19">
-        <v>44797</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E20" s="23" t="s">
-        <v>42</v>
-      </c>
+      <c r="C20" s="19"/>
+      <c r="D20" s="18"/>
+      <c r="E20" s="21"/>
       <c r="F20" s="22"/>
-      <c r="G20" s="20">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G20" s="20"/>
+    </row>
+    <row r="21" spans="2:7" ht="12" x14ac:dyDescent="0.15">
       <c r="B21" s="18">
         <v>11</v>
       </c>
-      <c r="C21" s="19">
-        <v>44798</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E21" s="23" t="s">
-        <v>39</v>
-      </c>
+      <c r="C21" s="19"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="22"/>
-      <c r="G21" s="20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="22" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G21" s="20"/>
+    </row>
+    <row r="22" spans="2:7" ht="12" x14ac:dyDescent="0.15">
       <c r="B22" s="18">
         <v>12</v>
       </c>
-      <c r="C22" s="19">
-        <v>44799</v>
-      </c>
-      <c r="D22" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="E22" s="23" t="s">
-        <v>48</v>
-      </c>
+      <c r="C22" s="19"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="22"/>
-      <c r="G22" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G22" s="20"/>
+    </row>
+    <row r="23" spans="2:7" ht="12" x14ac:dyDescent="0.15">
       <c r="B23" s="18">
         <v>13</v>
       </c>
-      <c r="C23" s="19">
-        <v>44802</v>
-      </c>
+      <c r="C23" s="19"/>
       <c r="D23" s="18"/>
-      <c r="E23" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="E23" s="23"/>
       <c r="F23" s="22"/>
-      <c r="G23" s="20">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G23" s="20"/>
+    </row>
+    <row r="24" spans="2:7" ht="12" x14ac:dyDescent="0.15">
       <c r="B24" s="18">
         <v>14</v>
       </c>
-      <c r="C24" s="19">
-        <v>44803</v>
-      </c>
+      <c r="C24" s="19"/>
       <c r="D24" s="18"/>
-      <c r="E24" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="E24" s="23"/>
       <c r="F24" s="22"/>
-      <c r="G24" s="20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="G24" s="20"/>
+    </row>
+    <row r="25" spans="2:7" ht="12" x14ac:dyDescent="0.15">
       <c r="B25" s="18">
         <v>15</v>
       </c>
-      <c r="C25" s="19">
-        <v>44804</v>
-      </c>
+      <c r="C25" s="19"/>
       <c r="D25" s="18"/>
-      <c r="E25" s="23" t="s">
-        <v>49</v>
-      </c>
+      <c r="E25" s="23"/>
       <c r="F25" s="22"/>
-      <c r="G25" s="20">
-        <v>8</v>
-      </c>
+      <c r="G25" s="20"/>
     </row>
     <row r="26" spans="2:7" ht="12" x14ac:dyDescent="0.15">
       <c r="B26" s="18">
@@ -2714,7 +3669,7 @@
       </c>
       <c r="C26" s="19"/>
       <c r="D26" s="18"/>
-      <c r="E26" s="21"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="22"/>
       <c r="G26" s="20"/>
     </row>
@@ -2724,7 +3679,7 @@
       </c>
       <c r="C27" s="19"/>
       <c r="D27" s="18"/>
-      <c r="E27" s="21"/>
+      <c r="E27" s="23"/>
       <c r="F27" s="22"/>
       <c r="G27" s="20"/>
     </row>
@@ -2734,7 +3689,7 @@
       </c>
       <c r="C28" s="19"/>
       <c r="D28" s="18"/>
-      <c r="E28" s="21"/>
+      <c r="E28" s="23"/>
       <c r="F28" s="22"/>
       <c r="G28" s="20"/>
     </row>
@@ -2820,38 +3775,28 @@
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
-  <conditionalFormatting sqref="B11:C11 B12:B36 C11:C23">
-    <cfRule type="expression" dxfId="24" priority="15" stopIfTrue="1">
+  <conditionalFormatting sqref="B11:C11 B12:B36 C11:C29">
+    <cfRule type="expression" dxfId="34" priority="15" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D11:D23">
-    <cfRule type="expression" dxfId="23" priority="14" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D24:D30">
-    <cfRule type="expression" dxfId="22" priority="10" stopIfTrue="1">
+  <conditionalFormatting sqref="D11:D30">
+    <cfRule type="expression" dxfId="33" priority="14" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D36">
-    <cfRule type="expression" dxfId="21" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="32" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C31:C36">
-    <cfRule type="expression" dxfId="20" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="31" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C24:C25">
-    <cfRule type="expression" dxfId="19" priority="2" stopIfTrue="1">
-      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C26:C30">
-    <cfRule type="expression" dxfId="18" priority="1" stopIfTrue="1">
+  <conditionalFormatting sqref="C30">
+    <cfRule type="expression" dxfId="30" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3326,47 +4271,47 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B11:C11 B12:B36 C12:C20">
-    <cfRule type="expression" dxfId="17" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="29" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11">
-    <cfRule type="expression" dxfId="16" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="28" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D12:D16">
-    <cfRule type="expression" dxfId="15" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D21:D28">
-    <cfRule type="expression" dxfId="14" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="26" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C21:C27">
-    <cfRule type="expression" dxfId="13" priority="5" stopIfTrue="1">
+    <cfRule type="expression" dxfId="25" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D29:D36">
-    <cfRule type="expression" dxfId="12" priority="4" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C29:C36">
-    <cfRule type="expression" dxfId="11" priority="3" stopIfTrue="1">
+    <cfRule type="expression" dxfId="23" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C28">
-    <cfRule type="expression" dxfId="10" priority="2" stopIfTrue="1">
+    <cfRule type="expression" dxfId="22" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17:D20">
-    <cfRule type="expression" dxfId="9" priority="1" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="1" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3921,41 +4866,1155 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <conditionalFormatting sqref="B11:C11 B12:B36 C12:C21">
-    <cfRule type="expression" dxfId="8" priority="9" stopIfTrue="1">
+    <cfRule type="expression" dxfId="20" priority="9" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D16">
-    <cfRule type="expression" dxfId="7" priority="8" stopIfTrue="1">
+    <cfRule type="expression" dxfId="19" priority="8" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D14:D16">
-    <cfRule type="expression" dxfId="6" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="7" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:D30">
-    <cfRule type="expression" dxfId="5" priority="6" stopIfTrue="1">
+    <cfRule type="expression" dxfId="17" priority="6" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D31:D36">
+    <cfRule type="expression" dxfId="16" priority="5" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:C36">
+    <cfRule type="expression" dxfId="15" priority="4" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D17:D20">
+    <cfRule type="expression" dxfId="14" priority="3" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C22:C25">
+    <cfRule type="expression" dxfId="13" priority="2" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C30">
+    <cfRule type="expression" dxfId="12" priority="1" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.27559055118110237" right="0.23622047244094491" top="0.47244094488188981" bottom="0.39370078740157483" header="0.23622047244094491" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:I36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C62" sqref="C62:I63"/>
+      <selection pane="bottomLeft" activeCell="E25" sqref="E25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.25" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="40.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.25" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="2.625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="2:9" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="2:9" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="2:9" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="2:9" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="15">
+        <f>SUM(G11:G29)</f>
+        <v>99</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="2:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="3"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="2:9" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" s="4" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+      <c r="B11" s="18">
+        <v>1</v>
+      </c>
+      <c r="C11" s="19">
+        <v>44775</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="20">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="B12" s="18">
+        <v>2</v>
+      </c>
+      <c r="C12" s="19">
+        <v>44776</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="12" x14ac:dyDescent="0.15">
+      <c r="B13" s="18">
+        <v>3</v>
+      </c>
+      <c r="C13" s="19">
+        <v>44777</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>42</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="12" x14ac:dyDescent="0.15">
+      <c r="B14" s="18">
+        <v>4</v>
+      </c>
+      <c r="C14" s="19">
+        <v>44778</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="12" x14ac:dyDescent="0.15">
+      <c r="B15" s="18">
+        <v>5</v>
+      </c>
+      <c r="C15" s="19">
+        <v>44781</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="12" x14ac:dyDescent="0.15">
+      <c r="B16" s="18">
+        <v>6</v>
+      </c>
+      <c r="C16" s="19">
+        <v>44782</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="18">
+        <v>7</v>
+      </c>
+      <c r="C17" s="19">
+        <v>44783</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>40</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="18">
+        <v>8</v>
+      </c>
+      <c r="C18" s="19">
+        <v>44795</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="18">
+        <v>9</v>
+      </c>
+      <c r="C19" s="19">
+        <v>44796</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="36" x14ac:dyDescent="0.15">
+      <c r="B20" s="18">
+        <v>10</v>
+      </c>
+      <c r="C20" s="19">
+        <v>44797</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="18">
+        <v>11</v>
+      </c>
+      <c r="C21" s="19">
+        <v>44798</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="18">
+        <v>12</v>
+      </c>
+      <c r="C22" s="19">
+        <v>44799</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="18">
+        <v>13</v>
+      </c>
+      <c r="C23" s="19">
+        <v>44802</v>
+      </c>
+      <c r="D23" s="18"/>
+      <c r="E23" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="20">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="18">
+        <v>14</v>
+      </c>
+      <c r="C24" s="19">
+        <v>44803</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="18">
+        <v>15</v>
+      </c>
+      <c r="C25" s="19">
+        <v>44804</v>
+      </c>
+      <c r="D25" s="18"/>
+      <c r="E25" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="12" x14ac:dyDescent="0.15">
+      <c r="B26" s="18">
+        <v>16</v>
+      </c>
+      <c r="C26" s="19"/>
+      <c r="D26" s="18"/>
+      <c r="E26" s="21"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="20"/>
+    </row>
+    <row r="27" spans="2:7" ht="12" x14ac:dyDescent="0.15">
+      <c r="B27" s="18">
+        <v>17</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="18"/>
+      <c r="E27" s="21"/>
+      <c r="F27" s="22"/>
+      <c r="G27" s="20"/>
+    </row>
+    <row r="28" spans="2:7" ht="12" x14ac:dyDescent="0.15">
+      <c r="B28" s="18">
+        <v>18</v>
+      </c>
+      <c r="C28" s="19"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="21"/>
+      <c r="F28" s="22"/>
+      <c r="G28" s="20"/>
+    </row>
+    <row r="29" spans="2:7" ht="12" x14ac:dyDescent="0.15">
+      <c r="B29" s="18">
+        <v>19</v>
+      </c>
+      <c r="C29" s="19"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="21"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="20"/>
+    </row>
+    <row r="30" spans="2:7" ht="12" x14ac:dyDescent="0.15">
+      <c r="B30" s="18">
+        <v>20</v>
+      </c>
+      <c r="C30" s="19"/>
+      <c r="D30" s="18"/>
+      <c r="E30" s="21"/>
+      <c r="F30" s="22"/>
+      <c r="G30" s="20"/>
+    </row>
+    <row r="31" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="18">
+        <v>21</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="18">
+        <v>22</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="18">
+        <v>23</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="18">
+        <v>24</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="18">
+        <v>25</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="2:7" ht="12" x14ac:dyDescent="0.15">
+      <c r="B36" s="18">
+        <v>26</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="B11:C11 B12:B36 C12:C23">
+    <cfRule type="expression" dxfId="11" priority="7" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D11:D23">
+    <cfRule type="expression" dxfId="10" priority="6" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D24:D30">
+    <cfRule type="expression" dxfId="9" priority="5" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D31:D36">
+    <cfRule type="expression" dxfId="8" priority="4" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C31:C36">
+    <cfRule type="expression" dxfId="7" priority="3" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C24:C25">
+    <cfRule type="expression" dxfId="6" priority="2" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C26:C30">
+    <cfRule type="expression" dxfId="5" priority="1" stopIfTrue="1">
+      <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.27559055118110237" right="0.23622047244094491" top="0.47244094488188981" bottom="0.39370078740157483" header="0.23622047244094491" footer="0.19685039370078741"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <headerFooter alignWithMargins="0">
+    <oddFooter>&amp;P / &amp;N ページ</oddFooter>
+  </headerFooter>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:I36"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C62" sqref="C62:I63"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="2.375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9" style="2" customWidth="1"/>
+    <col min="3" max="3" width="24.25" style="7" customWidth="1"/>
+    <col min="4" max="4" width="8.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="40.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="21.25" style="2" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="6.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="2.625" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:9" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="C1" s="6"/>
+    </row>
+    <row r="2" spans="2:9" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="C2" s="6"/>
+    </row>
+    <row r="3" spans="2:9" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="C3" s="6"/>
+    </row>
+    <row r="4" spans="2:9" s="1" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="C4" s="6"/>
+    </row>
+    <row r="5" spans="2:9" s="1" customFormat="1" ht="7.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+    </row>
+    <row r="7" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="11"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="13"/>
+    </row>
+    <row r="8" spans="2:9" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="D8" s="11"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="G8" s="15">
+        <f>SUM(G11:G29)</f>
+        <v>138</v>
+      </c>
+      <c r="H8" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="13"/>
+    </row>
+    <row r="9" spans="2:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="3"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="13"/>
+    </row>
+    <row r="10" spans="2:9" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:9" s="4" customFormat="1" ht="26.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="18">
+        <v>1</v>
+      </c>
+      <c r="C11" s="19">
+        <v>44805</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="22"/>
+      <c r="G11" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" s="4" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+      <c r="B12" s="18">
+        <v>2</v>
+      </c>
+      <c r="C12" s="19">
+        <v>44806</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="22"/>
+      <c r="G12" s="20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="12" x14ac:dyDescent="0.15">
+      <c r="B13" s="18">
+        <v>3</v>
+      </c>
+      <c r="C13" s="19">
+        <v>44809</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="22"/>
+      <c r="G13" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="12" x14ac:dyDescent="0.15">
+      <c r="B14" s="18">
+        <v>4</v>
+      </c>
+      <c r="C14" s="19">
+        <v>44810</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="22"/>
+      <c r="G14" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:9" ht="24" x14ac:dyDescent="0.15">
+      <c r="B15" s="18">
+        <v>5</v>
+      </c>
+      <c r="C15" s="19">
+        <v>44811</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="22"/>
+      <c r="G15" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="24" x14ac:dyDescent="0.15">
+      <c r="B16" s="18">
+        <v>6</v>
+      </c>
+      <c r="C16" s="19">
+        <v>44812</v>
+      </c>
+      <c r="D16" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="22"/>
+      <c r="G16" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" ht="24" x14ac:dyDescent="0.15">
+      <c r="B17" s="18">
+        <v>7</v>
+      </c>
+      <c r="C17" s="19">
+        <v>44813</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E17" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="22"/>
+      <c r="G17" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" ht="30.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="18">
+        <v>8</v>
+      </c>
+      <c r="C18" s="19">
+        <v>44816</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" s="22"/>
+      <c r="G18" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="18">
+        <v>9</v>
+      </c>
+      <c r="C19" s="19">
+        <v>44817</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="F19" s="22"/>
+      <c r="G19" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" ht="24" x14ac:dyDescent="0.15">
+      <c r="B20" s="18">
+        <v>10</v>
+      </c>
+      <c r="C20" s="19">
+        <v>44818</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="22"/>
+      <c r="G20" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="18">
+        <v>11</v>
+      </c>
+      <c r="C21" s="19">
+        <v>44819</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E21" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F21" s="22"/>
+      <c r="G21" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="18">
+        <v>12</v>
+      </c>
+      <c r="C22" s="19">
+        <v>44820</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E22" s="23" t="s">
+        <v>52</v>
+      </c>
+      <c r="F22" s="22"/>
+      <c r="G22" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="18">
+        <v>13</v>
+      </c>
+      <c r="C23" s="19">
+        <v>44824</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F23" s="22"/>
+      <c r="G23" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="18">
+        <v>14</v>
+      </c>
+      <c r="C24" s="19">
+        <v>44825</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F24" s="22"/>
+      <c r="G24" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="18">
+        <v>15</v>
+      </c>
+      <c r="C25" s="19">
+        <v>44826</v>
+      </c>
+      <c r="D25" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E25" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="F25" s="22"/>
+      <c r="G25" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="18">
+        <v>16</v>
+      </c>
+      <c r="C26" s="19">
+        <v>44830</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E26" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="22"/>
+      <c r="G26" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" ht="35.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="18">
+        <v>17</v>
+      </c>
+      <c r="C27" s="19">
+        <v>44831</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E27" s="21" t="s">
+        <v>56</v>
+      </c>
+      <c r="F27" s="22"/>
+      <c r="G27" s="20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" ht="24" x14ac:dyDescent="0.15">
+      <c r="B28" s="18">
+        <v>18</v>
+      </c>
+      <c r="C28" s="19">
+        <v>44832</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E28" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="F28" s="22"/>
+      <c r="G28" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" ht="24" x14ac:dyDescent="0.15">
+      <c r="B29" s="18">
+        <v>19</v>
+      </c>
+      <c r="C29" s="19">
+        <v>44833</v>
+      </c>
+      <c r="D29" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E29" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="22"/>
+      <c r="G29" s="20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="12" x14ac:dyDescent="0.15">
+      <c r="B30" s="18">
+        <v>20</v>
+      </c>
+      <c r="C30" s="19">
+        <v>44834</v>
+      </c>
+      <c r="D30" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="F30" s="22"/>
+      <c r="G30" s="20">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B31" s="18">
+        <v>21</v>
+      </c>
+      <c r="C31" s="19"/>
+      <c r="D31" s="18"/>
+      <c r="E31" s="21"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="20"/>
+    </row>
+    <row r="32" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="18">
+        <v>22</v>
+      </c>
+      <c r="C32" s="19"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="21"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B33" s="18">
+        <v>23</v>
+      </c>
+      <c r="C33" s="19"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="21"/>
+      <c r="F33" s="22"/>
+      <c r="G33" s="20"/>
+    </row>
+    <row r="34" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B34" s="18">
+        <v>24</v>
+      </c>
+      <c r="C34" s="19"/>
+      <c r="D34" s="18"/>
+      <c r="E34" s="21"/>
+      <c r="F34" s="22"/>
+      <c r="G34" s="20"/>
+    </row>
+    <row r="35" spans="2:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B35" s="18">
+        <v>25</v>
+      </c>
+      <c r="C35" s="19"/>
+      <c r="D35" s="18"/>
+      <c r="E35" s="21"/>
+      <c r="F35" s="22"/>
+      <c r="G35" s="20"/>
+    </row>
+    <row r="36" spans="2:7" ht="12" x14ac:dyDescent="0.15">
+      <c r="B36" s="18">
+        <v>26</v>
+      </c>
+      <c r="C36" s="19"/>
+      <c r="D36" s="18"/>
+      <c r="E36" s="21"/>
+      <c r="F36" s="22"/>
+      <c r="G36" s="20"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <conditionalFormatting sqref="B11:C11 B12:B36 C12:C25">
     <cfRule type="expression" dxfId="4" priority="5" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C31:C36">
+  <conditionalFormatting sqref="D11:D30">
     <cfRule type="expression" dxfId="3" priority="4" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D17:D20">
+  <conditionalFormatting sqref="D31:D36">
     <cfRule type="expression" dxfId="2" priority="3" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C22:C25">
+  <conditionalFormatting sqref="C31:C36">
     <cfRule type="expression" dxfId="1" priority="2" stopIfTrue="1">
       <formula>IF(#REF!="済み","TRUE","FALSE")</formula>
     </cfRule>
@@ -3975,23 +6034,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -4210,32 +6252,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4252,4 +6286,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
+++ b/作業報告書/AdvanceCAD⇒AutoCAD移行開発（要件定義）_作業報告書_山本.xlsx
@@ -3332,7 +3332,7 @@
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="130" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C62" sqref="C62:I63"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.625" defaultRowHeight="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -6034,6 +6034,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100E3652DB590BAC84DB2E0D4E8A3DCA88E" ma:contentTypeVersion="12" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="db050205d3e5bcbf08d2a2c60a399ab0">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="3aa6ddf9-567b-4810-a401-3ff02eef0833" xmlns:ns3="df5e64f4-f615-449d-a6e7-2dd58101ed73" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="cc89e018e03111e1baaf07b6f9284535" ns2:_="" ns3:_="">
     <xsd:import namespace="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
@@ -6252,24 +6269,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_x7c21__x6613__x8aac__x660e_ xmlns="3aa6ddf9-567b-4810-a401-3ff02eef0833" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C7BB3938-5547-4468-9224-E3EA75CBEE7B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6286,29 +6311,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E3F82381-36CE-4A8E-8346-65B8C1E6764F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{792631E2-B910-4E6C-8FB0-3F8857016DB4}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="df5e64f4-f615-449d-a6e7-2dd58101ed73"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="3aa6ddf9-567b-4810-a401-3ff02eef0833"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>